--- a/web/media/templates/fac-template.xlsx
+++ b/web/media/templates/fac-template.xlsx
@@ -140,6 +140,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">1 - GENERALITES </t>
     </r>
@@ -149,6 +150,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. Les conditions ci-dessous s'appliquent à toutes transactions effectuées par la société ACCES en l'absence d'un contrat spécifiquestipulant expressément les points sur lesquels la société ACCES accepte une dérogation.</t>
     </r>
@@ -161,6 +163,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">2 - COMMANDE </t>
     </r>
@@ -170,6 +173,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. La société ACCES ne considère comme commandes que celles qu'elle a acceptées et confirmées. Sans accord préalablede la société ACCES, aucune annulation de commande, même partielle, ne pourra être faite de la part du client, Si annulation il ya, celle-ci donnera lieu à indemnités et tout acompte versé restera acquis. Toute clause ou condition particulière d'achat figurant sur le bon de commande du client, qui sera en opposition avec les présentes conditions sera considérée comme nulle.</t>
     </r>
@@ -182,6 +186,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">3 - PRIX</t>
     </r>
@@ -191,6 +196,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. Les prix applicables sont ceux établis par devis et ne sont garantis que 30 jours. Au delà de ce dé la une remise à jour est effectuée.Le tarif des taxes, et droits est modifiable sans préavis en fonction des variations et s'applique même en cours d'exécution d'une commande à la livraison fractionnée.</t>
     </r>
@@ -203,6 +209,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">4 - DELAIS DE LIVRAISON </t>
     </r>
@@ -212,6 +219,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. Les délais de livraison sont donnés à titre indicatif. Les retards ne peuvent en aucun cas justifier l'annulation de la commande, ou une indemnité quelconque ou l'application de pénalités de retard. Tout report de livraison est subordonné à l'accord écrit de la société ACCES.</t>
     </r>
@@ -224,6 +232,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">5 - CLAUSE DE FORCE MAJEUR </t>
     </r>
@@ -233,6 +242,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. La survenance d'un cas de force majeure a pour effet de suspendre l'exécution des obligations contractuelles de la société ACCES. En cas de force majeure tout évènement indépendant de la volontéde la société ACCES et faisant obstacle à son fonctionnement normal au stade de la fabrication ou de l'expédition des produits. Constituent des cas de force majeure les grèves totales ou partielles entravant la bonne marche de la société ACCES ou celle de l'un de ses fournisseurs, sous-traitants ou transporteurs ainsi que l'interruption des transports, de la fourniture d'énergie, de matières premières ou de pièces détachées.</t>
     </r>
@@ -245,6 +255,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">6 - TRANSPORTS ET LIVRAISONS. </t>
     </r>
@@ -254,6 +265,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Les marchandises sont réputées prises dans l'entrepôt de la société ACCES. Elles sont expédiées aux risques et périls du client, les marchandises sont livrées sur camion. L'accessibilité et l'aménagement des locaux destinés à les recevoir ainsi que le personnel pour aider au déchargement doivent être prévus par le client.</t>
     </r>
@@ -266,6 +278,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">7 - RECEPTION DES MARCHANDISES </t>
     </r>
@@ -275,6 +288,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. A la réception, le client doit vérifier la qualité, la quantité, et le bon état des marchandises livrées. En cas de non-conformité, il doit en avertir la société ACCES dans un délaide 48 heures, si le vice est apparent, et dans le même délai à partir du moment où il en a connaissance, si le vice est caché. La société ACCES n'accepte aucun retour de marchandise sans l'avoir préalablement autorisé.Tout défaut n'oblige la société ACCES qu'au remplacement pur et simple des marchandises incriminées sans aucune indemnité. Le retour ne concerne que les marchandises n'ayant subi aucunes modifications ou altérations autres que celles constatées lors de la réception de celle-ci et indiquées sur le bon de livraison.</t>
     </r>
@@ -287,6 +301,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">8 - ETUDES. </t>
     </r>
@@ -296,6 +311,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Les études et recommandations sont faites bénévolement et données à titre indicatif. Elles ne peuvent en aucun cas engager la responsabilité de la société ACCES, ni être communiquées à quiconque sans son accord.</t>
     </r>
@@ -308,6 +324,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">9 - CONDITIONS DE PAIEMENT</t>
     </r>
@@ -317,6 +334,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. Pour tout clients ne possédant pas un compte ouvert à la société ACCES, le règlement est au comptant à la commande. Pour tout client disposant d'un compte ouvert à la société ACCES, le règlement est dû 30 jours fin de mois, sauf conditions particulières définies par la société ACCES. La société ACCES se réserve le droit de modifier unilatéralement ces conditions, si la situation financière du client semble le justifier. En cas de règlement anticipé, celui-ci ne fera pas l'objet d'escompte ou remise.</t>
     </r>
@@ -329,6 +347,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">10 - CLAUSE PENALE. </t>
     </r>
@@ -338,6 +357,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Tout recouvrement par voie contentieuse entraîne de plein droit, à la charge de l'acheteur, une indemnité fixée, à titre pénal, à 15% du montant des factures impayées à leur échéance avec un minimum de 50%, sans préjudice des demandes pouvant être formées en vertude l'article 700 du N.C.P.C.</t>
     </r>
@@ -350,6 +370,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">11 - DEFAUT DE PAIEMENT </t>
     </r>
@@ -359,6 +380,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. Des pénalité seront appliquées au montant hors taxes de la facture dans le cas où le règlement ne sera pas intervenu dans le délai fixé par les présentes conditions générales. Ces pénalités de retard courent de plein droit à un taux égal à une fois et demi le taux d'intérêt légal.Elles commencent à courir, après mise en demeure préalable du débiteur. Le défaut de règlement d'un seul effet ou d'une seule facture à son échéance entraine la déchéance du terme et rend immédiatement exigible le solde des créances de la société ACCES.</t>
     </r>
@@ -371,6 +393,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">12 - RESERVE DE PROPRIETE. </t>
     </r>
@@ -380,6 +403,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">Conformément aux dispositions de la loi du 12 mai 1980, la société ACCES se réserve la propriété des marchandises désignée sur le bon de livraison, jusqu'au règlement intégral de leur prix en principal et intérêts, nonobstant l'acceptation de tout effet de commerce ou paiement d'acomptes. Dès la remise matérielle, le client devient responsable des marchandises. Toutes clauses figurants dans des conditions générales d'achat est réputée nulle et de nul effet vis-à-vis de la société ACCES.</t>
     </r>
@@ -392,6 +416,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">13 - T.V.A </t>
     </r>
@@ -401,6 +426,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. La T.V.A. est acquittée d'après les débits.Toute modification du montant HT entraine la modification du montant de la TVA récupérable.</t>
     </r>
@@ -413,6 +439,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Helvetica-Bold"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">14 - JURIDICTION</t>
     </r>
@@ -422,6 +449,7 @@
         <color rgb="FF82C8ED"/>
         <rFont val="Arial"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">. Pour toutes les contestations relatives à l'exécutionou à l'interprétationdes présentes clauses, seul sera compétent le tribunal de commerce de montereau fault yonne.</t>
     </r>
@@ -431,11 +459,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
-    <numFmt numFmtId="167" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -556,6 +583,7 @@
       <color rgb="FF000000"/>
       <name val=".AppleSystemUIFont"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -577,12 +605,14 @@
       <color rgb="FF82C8ED"/>
       <name val="Helvetica-Bold"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF82C8ED"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -690,7 +720,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -723,34 +753,38 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -759,7 +793,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -883,7 +917,7 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -895,7 +929,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="167" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -907,7 +941,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -915,15 +949,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -939,7 +977,7 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1034,9 +1072,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>187920</xdr:colOff>
+      <xdr:colOff>74880</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145440</xdr:rowOff>
+      <xdr:rowOff>145080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1050,7 +1088,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39600" y="0"/>
-          <a:ext cx="2891520" cy="716760"/>
+          <a:ext cx="2891160" cy="716400"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1072,13 +1110,14 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A28" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B53" activeCellId="0" sqref="B53"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B90" activeCellId="0" sqref="B90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.12"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="15.84"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="11.52"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
@@ -1248,421 +1287,421 @@
       <c r="A16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="B16" s="8" t="s">
+      <c r="B16" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="C16" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="16" t="s">
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="16"/>
+      <c r="H16" s="17" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="17"/>
-      <c r="B17" s="17"/>
-      <c r="C17" s="18" t="s">
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="18"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
-      <c r="F17" s="18"/>
-      <c r="G17" s="18"/>
-      <c r="H17" s="17"/>
+      <c r="D17" s="19"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="19"/>
+      <c r="G17" s="19"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="19" t="s">
+      <c r="A18" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="B18" s="20" t="s">
+      <c r="B18" s="21" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="20"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="19" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="21"/>
+      <c r="E18" s="21"/>
+      <c r="F18" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="G18" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="19" t="s">
+      <c r="H18" s="20" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="21"/>
-      <c r="B19" s="22"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="25"/>
+      <c r="A19" s="22"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="23"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="26"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="21"/>
-      <c r="B20" s="26"/>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="29"/>
+      <c r="A20" s="22"/>
+      <c r="B20" s="27"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="27"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="29"/>
+      <c r="H20" s="30"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="21"/>
-      <c r="B21" s="26"/>
-      <c r="C21" s="26"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="27"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="29"/>
+      <c r="A21" s="22"/>
+      <c r="B21" s="27"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="29"/>
+      <c r="H21" s="30"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="21"/>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="27"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="29"/>
+      <c r="A22" s="22"/>
+      <c r="B22" s="27"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="30"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="21"/>
-      <c r="B23" s="26"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="29"/>
+      <c r="A23" s="22"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="27"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="30"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="21"/>
-      <c r="B24" s="26"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="27"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="29"/>
+      <c r="A24" s="22"/>
+      <c r="B24" s="27"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="29"/>
+      <c r="H24" s="30"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="21"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="29"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="27"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="29"/>
+      <c r="H25" s="30"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="21"/>
-      <c r="B26" s="26"/>
-      <c r="C26" s="26"/>
-      <c r="D26" s="26"/>
-      <c r="E26" s="26"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="28"/>
-      <c r="H26" s="29"/>
+      <c r="A26" s="22"/>
+      <c r="B26" s="27"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="27"/>
+      <c r="F26" s="28"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="30"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="21"/>
-      <c r="B27" s="26"/>
-      <c r="C27" s="26"/>
-      <c r="D27" s="26"/>
-      <c r="E27" s="26"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="28"/>
-      <c r="H27" s="29"/>
+      <c r="A27" s="22"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="29"/>
+      <c r="H27" s="30"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="21"/>
-      <c r="B28" s="26"/>
-      <c r="C28" s="26"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="26"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="29"/>
+      <c r="A28" s="22"/>
+      <c r="B28" s="27"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="27"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="29"/>
+      <c r="H28" s="30"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="21"/>
-      <c r="B29" s="26"/>
-      <c r="C29" s="26"/>
-      <c r="D29" s="26"/>
-      <c r="E29" s="26"/>
-      <c r="F29" s="27"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="29"/>
+      <c r="A29" s="22"/>
+      <c r="B29" s="27"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="27"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="30"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="21"/>
-      <c r="B30" s="26"/>
-      <c r="C30" s="26"/>
-      <c r="D30" s="26"/>
-      <c r="E30" s="26"/>
-      <c r="F30" s="27"/>
-      <c r="G30" s="28"/>
-      <c r="H30" s="29"/>
+      <c r="A30" s="22"/>
+      <c r="B30" s="27"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="27"/>
+      <c r="F30" s="28"/>
+      <c r="G30" s="29"/>
+      <c r="H30" s="30"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="21"/>
-      <c r="B31" s="26"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="26"/>
-      <c r="E31" s="26"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="28"/>
-      <c r="H31" s="29"/>
+      <c r="A31" s="22"/>
+      <c r="B31" s="27"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="28"/>
+      <c r="G31" s="29"/>
+      <c r="H31" s="30"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="21"/>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="28"/>
-      <c r="H32" s="29"/>
+      <c r="A32" s="22"/>
+      <c r="B32" s="27"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="28"/>
+      <c r="G32" s="29"/>
+      <c r="H32" s="30"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="21"/>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
-      <c r="F33" s="27"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="29"/>
+      <c r="A33" s="22"/>
+      <c r="B33" s="27"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27"/>
+      <c r="F33" s="28"/>
+      <c r="G33" s="29"/>
+      <c r="H33" s="30"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="21"/>
-      <c r="B34" s="26"/>
-      <c r="C34" s="26"/>
-      <c r="D34" s="26"/>
-      <c r="E34" s="26"/>
-      <c r="F34" s="27"/>
-      <c r="G34" s="28"/>
-      <c r="H34" s="29"/>
+      <c r="A34" s="22"/>
+      <c r="B34" s="27"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="27"/>
+      <c r="F34" s="28"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="30"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="21"/>
-      <c r="B35" s="26"/>
-      <c r="C35" s="26"/>
-      <c r="D35" s="26"/>
-      <c r="E35" s="26"/>
-      <c r="F35" s="27"/>
-      <c r="G35" s="28"/>
-      <c r="H35" s="29"/>
+      <c r="A35" s="22"/>
+      <c r="B35" s="27"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="27"/>
+      <c r="F35" s="28"/>
+      <c r="G35" s="29"/>
+      <c r="H35" s="30"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="21"/>
-      <c r="B36" s="26"/>
-      <c r="C36" s="26"/>
-      <c r="D36" s="26"/>
-      <c r="E36" s="26"/>
-      <c r="F36" s="27"/>
-      <c r="G36" s="28"/>
-      <c r="H36" s="29"/>
+      <c r="A36" s="22"/>
+      <c r="B36" s="27"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="27"/>
+      <c r="F36" s="28"/>
+      <c r="G36" s="29"/>
+      <c r="H36" s="30"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="21"/>
-      <c r="B37" s="26"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="26"/>
-      <c r="E37" s="26"/>
-      <c r="F37" s="27"/>
-      <c r="G37" s="28"/>
-      <c r="H37" s="29"/>
+      <c r="A37" s="22"/>
+      <c r="B37" s="27"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="27"/>
+      <c r="F37" s="28"/>
+      <c r="G37" s="29"/>
+      <c r="H37" s="30"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="21"/>
-      <c r="B38" s="26"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="26"/>
-      <c r="E38" s="26"/>
-      <c r="F38" s="27"/>
-      <c r="G38" s="28"/>
-      <c r="H38" s="29"/>
+      <c r="A38" s="22"/>
+      <c r="B38" s="27"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="28"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="30"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="21"/>
-      <c r="B39" s="26"/>
-      <c r="C39" s="26"/>
-      <c r="D39" s="26"/>
-      <c r="E39" s="26"/>
-      <c r="F39" s="27"/>
-      <c r="G39" s="28"/>
-      <c r="H39" s="29"/>
+      <c r="A39" s="22"/>
+      <c r="B39" s="27"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="27"/>
+      <c r="F39" s="28"/>
+      <c r="G39" s="29"/>
+      <c r="H39" s="30"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="21"/>
-      <c r="B40" s="26"/>
-      <c r="C40" s="26"/>
-      <c r="D40" s="26"/>
-      <c r="E40" s="26"/>
-      <c r="F40" s="27"/>
-      <c r="G40" s="28"/>
-      <c r="H40" s="29"/>
+      <c r="A40" s="22"/>
+      <c r="B40" s="27"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="27"/>
+      <c r="F40" s="28"/>
+      <c r="G40" s="29"/>
+      <c r="H40" s="30"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="21"/>
-      <c r="B41" s="26"/>
-      <c r="C41" s="26"/>
-      <c r="D41" s="26"/>
-      <c r="E41" s="26"/>
-      <c r="F41" s="27"/>
-      <c r="G41" s="28"/>
-      <c r="H41" s="29"/>
+      <c r="A41" s="22"/>
+      <c r="B41" s="27"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="27"/>
+      <c r="F41" s="28"/>
+      <c r="G41" s="29"/>
+      <c r="H41" s="30"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="21"/>
-      <c r="B42" s="26"/>
-      <c r="C42" s="26"/>
-      <c r="D42" s="26"/>
-      <c r="E42" s="26"/>
-      <c r="F42" s="27"/>
-      <c r="G42" s="28"/>
-      <c r="H42" s="29"/>
+      <c r="A42" s="22"/>
+      <c r="B42" s="27"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="27"/>
+      <c r="F42" s="28"/>
+      <c r="G42" s="29"/>
+      <c r="H42" s="30"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="21"/>
-      <c r="B43" s="26"/>
-      <c r="C43" s="26"/>
-      <c r="D43" s="26"/>
-      <c r="E43" s="26"/>
-      <c r="F43" s="27"/>
-      <c r="G43" s="28"/>
-      <c r="H43" s="29"/>
+      <c r="A43" s="22"/>
+      <c r="B43" s="27"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="27"/>
+      <c r="F43" s="28"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="30"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="30"/>
-      <c r="B44" s="31"/>
-      <c r="C44" s="31"/>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="32"/>
-      <c r="G44" s="33"/>
-      <c r="H44" s="34"/>
+      <c r="A44" s="31"/>
+      <c r="B44" s="32"/>
+      <c r="C44" s="32"/>
+      <c r="D44" s="32"/>
+      <c r="E44" s="32"/>
+      <c r="F44" s="33"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="35"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="20" t="s">
+      <c r="A45" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="20" t="s">
+      <c r="B45" s="21" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="35" t="s">
+      <c r="C45" s="36" t="s">
         <v>22</v>
       </c>
-      <c r="D45" s="36"/>
-      <c r="E45" s="35" t="s">
+      <c r="D45" s="37"/>
+      <c r="E45" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="F45" s="37" t="s">
+      <c r="F45" s="38" t="s">
         <v>24</v>
       </c>
-      <c r="G45" s="38"/>
-      <c r="H45" s="39" t="n">
+      <c r="G45" s="39"/>
+      <c r="H45" s="40" t="n">
         <f aca="false">SUM(H19:H44)</f>
         <v>0</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="40" t="n">
+      <c r="A46" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="B46" s="41"/>
-      <c r="C46" s="42" t="n">
+      <c r="B46" s="42"/>
+      <c r="C46" s="43" t="n">
         <f aca="false">SUM(C45:H45)</f>
         <v>0</v>
       </c>
-      <c r="D46" s="43"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="44" t="s">
+      <c r="D46" s="44"/>
+      <c r="E46" s="44"/>
+      <c r="F46" s="45" t="s">
         <v>25</v>
       </c>
-      <c r="G46" s="38"/>
-      <c r="H46" s="45" t="n">
+      <c r="G46" s="39"/>
+      <c r="H46" s="46" t="n">
         <f aca="false">SUM(H47-H45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="46"/>
-      <c r="B47" s="47"/>
-      <c r="C47" s="47"/>
+      <c r="A47" s="47"/>
+      <c r="B47" s="48"/>
+      <c r="C47" s="48"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
-      <c r="F47" s="37" t="s">
+      <c r="F47" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="G47" s="38"/>
-      <c r="H47" s="39" t="n">
+      <c r="G47" s="39"/>
+      <c r="H47" s="40" t="n">
         <f aca="false">SUM(H45*1.2)</f>
         <v>0</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="48" t="s">
+      <c r="A48" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="48"/>
-      <c r="C48" s="48"/>
+      <c r="B48" s="49"/>
+      <c r="C48" s="49"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="49" t="s">
+      <c r="F48" s="50" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="50" t="s">
+      <c r="G48" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="51" t="n">
+      <c r="H48" s="52" t="n">
         <f aca="false">SUM(H47+0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="48" t="s">
+      <c r="A49" s="49" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="48"/>
-      <c r="C49" s="48"/>
-      <c r="D49" s="52"/>
-      <c r="E49" s="52"/>
+      <c r="B49" s="49"/>
+      <c r="C49" s="49"/>
+      <c r="D49" s="53"/>
+      <c r="E49" s="53"/>
       <c r="F49" s="0"/>
       <c r="G49" s="0"/>
       <c r="H49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="48" t="s">
+      <c r="A50" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="48"/>
-      <c r="C50" s="48"/>
-      <c r="F50" s="53"/>
-      <c r="G50" s="53"/>
-      <c r="H50" s="53"/>
+      <c r="B50" s="49"/>
+      <c r="C50" s="49"/>
+      <c r="F50" s="54"/>
+      <c r="G50" s="54"/>
+      <c r="H50" s="54"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="53"/>
-      <c r="G51" s="53"/>
-      <c r="H51" s="53"/>
+      <c r="F51" s="54"/>
+      <c r="G51" s="54"/>
+      <c r="H51" s="54"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="54" t="s">
+      <c r="A52" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="54"/>
+      <c r="B52" s="55"/>
       <c r="C52" s="0"/>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
@@ -1670,10 +1709,11 @@
       <c r="G52" s="0"/>
       <c r="H52" s="0"/>
     </row>
-    <row r="53" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="55" t="s">
+    <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A53" s="56" t="s">
         <v>33</v>
       </c>
+      <c r="B53" s="57"/>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
@@ -1686,28 +1726,28 @@
       <c r="B54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="56" t="s">
+      <c r="A55" s="58" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="56"/>
-      <c r="C55" s="56"/>
-      <c r="D55" s="56"/>
-      <c r="E55" s="56"/>
-      <c r="F55" s="56"/>
-      <c r="G55" s="56"/>
-      <c r="H55" s="56"/>
+      <c r="B55" s="58"/>
+      <c r="C55" s="58"/>
+      <c r="D55" s="58"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="58"/>
+      <c r="G55" s="58"/>
+      <c r="H55" s="58"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="57" t="s">
+      <c r="A56" s="59" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="57"/>
-      <c r="C56" s="57"/>
-      <c r="D56" s="57"/>
-      <c r="E56" s="57"/>
-      <c r="F56" s="57"/>
-      <c r="G56" s="57"/>
-      <c r="H56" s="57"/>
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="59"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="59"/>
+      <c r="H56" s="59"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
@@ -1720,321 +1760,321 @@
       <c r="H57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="58" t="s">
+      <c r="A58" s="60" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="58"/>
-      <c r="C58" s="58"/>
-      <c r="D58" s="58"/>
-      <c r="E58" s="58"/>
-      <c r="F58" s="58"/>
-      <c r="G58" s="58"/>
+      <c r="B58" s="60"/>
+      <c r="C58" s="60"/>
+      <c r="D58" s="60"/>
+      <c r="E58" s="60"/>
+      <c r="F58" s="60"/>
+      <c r="G58" s="60"/>
       <c r="H58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="59"/>
-      <c r="C59" s="60"/>
-      <c r="D59" s="61"/>
-      <c r="E59" s="61"/>
-      <c r="F59" s="61"/>
-    </row>
-    <row r="60" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="62" t="s">
+      <c r="B59" s="61"/>
+      <c r="C59" s="62"/>
+      <c r="D59" s="63"/>
+      <c r="E59" s="63"/>
+      <c r="F59" s="63"/>
+    </row>
+    <row r="60" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A60" s="64" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="62"/>
-      <c r="D60" s="62"/>
-      <c r="E60" s="62"/>
-      <c r="F60" s="62"/>
-      <c r="G60" s="62"/>
-      <c r="H60" s="62"/>
+      <c r="B60" s="64"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="64"/>
+      <c r="E60" s="64"/>
+      <c r="F60" s="64"/>
+      <c r="G60" s="64"/>
+      <c r="H60" s="64"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="63"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="63"/>
-      <c r="E61" s="63"/>
-      <c r="F61" s="63"/>
-      <c r="G61" s="63"/>
-      <c r="H61" s="63"/>
-    </row>
-    <row r="62" customFormat="false" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="62" t="s">
+      <c r="A61" s="65"/>
+      <c r="B61" s="65"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="65"/>
+      <c r="E61" s="65"/>
+      <c r="F61" s="65"/>
+      <c r="G61" s="65"/>
+      <c r="H61" s="65"/>
+    </row>
+    <row r="62" customFormat="false" ht="53.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A62" s="64" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="62"/>
-      <c r="D62" s="62"/>
-      <c r="E62" s="62"/>
-      <c r="F62" s="62"/>
-      <c r="G62" s="62"/>
-      <c r="H62" s="62"/>
+      <c r="B62" s="64"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="64"/>
+      <c r="E62" s="64"/>
+      <c r="F62" s="64"/>
+      <c r="G62" s="64"/>
+      <c r="H62" s="64"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="64"/>
-      <c r="E63" s="64"/>
-      <c r="F63" s="64"/>
-      <c r="G63" s="64"/>
-      <c r="H63" s="64"/>
-    </row>
-    <row r="64" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="62" t="s">
+      <c r="B63" s="66"/>
+      <c r="C63" s="66"/>
+      <c r="D63" s="66"/>
+      <c r="E63" s="66"/>
+      <c r="F63" s="66"/>
+      <c r="G63" s="66"/>
+      <c r="H63" s="66"/>
+    </row>
+    <row r="64" customFormat="false" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A64" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="62"/>
-      <c r="D64" s="62"/>
-      <c r="E64" s="62"/>
-      <c r="F64" s="62"/>
-      <c r="G64" s="62"/>
-      <c r="H64" s="62"/>
+      <c r="B64" s="64"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="64"/>
+      <c r="E64" s="64"/>
+      <c r="F64" s="64"/>
+      <c r="G64" s="64"/>
+      <c r="H64" s="64"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="64"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="64"/>
-      <c r="E65" s="64"/>
-      <c r="F65" s="64"/>
-      <c r="G65" s="64"/>
-      <c r="H65" s="64"/>
-    </row>
-    <row r="66" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="62" t="s">
+      <c r="A65" s="66"/>
+      <c r="B65" s="66"/>
+      <c r="C65" s="66"/>
+      <c r="D65" s="66"/>
+      <c r="E65" s="66"/>
+      <c r="F65" s="66"/>
+      <c r="G65" s="66"/>
+      <c r="H65" s="66"/>
+    </row>
+    <row r="66" customFormat="false" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A66" s="64" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="62"/>
-      <c r="C66" s="62"/>
-      <c r="D66" s="62"/>
-      <c r="E66" s="62"/>
-      <c r="F66" s="62"/>
-      <c r="G66" s="62"/>
-      <c r="H66" s="62"/>
+      <c r="B66" s="64"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="64"/>
+      <c r="E66" s="64"/>
+      <c r="F66" s="64"/>
+      <c r="G66" s="64"/>
+      <c r="H66" s="64"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="64"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="64"/>
-      <c r="E67" s="64"/>
-      <c r="F67" s="64"/>
-      <c r="G67" s="64"/>
-      <c r="H67" s="64"/>
-    </row>
-    <row r="68" customFormat="false" ht="57.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="62" t="s">
+      <c r="A67" s="66"/>
+      <c r="B67" s="66"/>
+      <c r="C67" s="66"/>
+      <c r="D67" s="66"/>
+      <c r="E67" s="66"/>
+      <c r="F67" s="66"/>
+      <c r="G67" s="66"/>
+      <c r="H67" s="66"/>
+    </row>
+    <row r="68" customFormat="false" ht="64.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="64" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="62"/>
-      <c r="D68" s="62"/>
-      <c r="E68" s="62"/>
-      <c r="F68" s="62"/>
-      <c r="G68" s="62"/>
-      <c r="H68" s="62"/>
+      <c r="B68" s="64"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="64"/>
+      <c r="E68" s="64"/>
+      <c r="F68" s="64"/>
+      <c r="G68" s="64"/>
+      <c r="H68" s="64"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="64"/>
-      <c r="B69" s="64"/>
-      <c r="C69" s="64"/>
-      <c r="D69" s="64"/>
-      <c r="E69" s="64"/>
-      <c r="F69" s="64"/>
-      <c r="G69" s="64"/>
-      <c r="H69" s="64"/>
-    </row>
-    <row r="70" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="62" t="s">
+      <c r="A69" s="66"/>
+      <c r="B69" s="66"/>
+      <c r="C69" s="66"/>
+      <c r="D69" s="66"/>
+      <c r="E69" s="66"/>
+      <c r="F69" s="66"/>
+      <c r="G69" s="66"/>
+      <c r="H69" s="66"/>
+    </row>
+    <row r="70" customFormat="false" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="64" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="62"/>
-      <c r="C70" s="62"/>
-      <c r="D70" s="62"/>
-      <c r="E70" s="62"/>
-      <c r="F70" s="62"/>
-      <c r="G70" s="62"/>
-      <c r="H70" s="62"/>
+      <c r="B70" s="64"/>
+      <c r="C70" s="64"/>
+      <c r="D70" s="64"/>
+      <c r="E70" s="64"/>
+      <c r="F70" s="64"/>
+      <c r="G70" s="64"/>
+      <c r="H70" s="64"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="64"/>
-      <c r="B71" s="64"/>
-      <c r="C71" s="64"/>
-      <c r="D71" s="64"/>
-      <c r="E71" s="64"/>
-      <c r="F71" s="64"/>
-      <c r="G71" s="64"/>
-      <c r="H71" s="64"/>
-    </row>
-    <row r="72" customFormat="false" ht="66.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="62" t="s">
+      <c r="A71" s="66"/>
+      <c r="B71" s="66"/>
+      <c r="C71" s="66"/>
+      <c r="D71" s="66"/>
+      <c r="E71" s="66"/>
+      <c r="F71" s="66"/>
+      <c r="G71" s="66"/>
+      <c r="H71" s="66"/>
+    </row>
+    <row r="72" customFormat="false" ht="80.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="64" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="62"/>
-      <c r="C72" s="62"/>
-      <c r="D72" s="62"/>
-      <c r="E72" s="62"/>
-      <c r="F72" s="62"/>
-      <c r="G72" s="62"/>
-      <c r="H72" s="62"/>
+      <c r="B72" s="64"/>
+      <c r="C72" s="64"/>
+      <c r="D72" s="64"/>
+      <c r="E72" s="64"/>
+      <c r="F72" s="64"/>
+      <c r="G72" s="64"/>
+      <c r="H72" s="64"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="64"/>
-      <c r="B73" s="64"/>
-      <c r="C73" s="64"/>
-      <c r="D73" s="64"/>
-      <c r="E73" s="64"/>
-      <c r="F73" s="64"/>
-      <c r="G73" s="64"/>
-      <c r="H73" s="64"/>
-    </row>
-    <row r="74" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="62" t="s">
+      <c r="A73" s="66"/>
+      <c r="B73" s="66"/>
+      <c r="C73" s="66"/>
+      <c r="D73" s="66"/>
+      <c r="E73" s="66"/>
+      <c r="F73" s="66"/>
+      <c r="G73" s="66"/>
+      <c r="H73" s="66"/>
+    </row>
+    <row r="74" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="62"/>
-      <c r="C74" s="62"/>
-      <c r="D74" s="62"/>
-      <c r="E74" s="62"/>
-      <c r="F74" s="62"/>
-      <c r="G74" s="62"/>
-      <c r="H74" s="62"/>
+      <c r="B74" s="64"/>
+      <c r="C74" s="64"/>
+      <c r="D74" s="64"/>
+      <c r="E74" s="64"/>
+      <c r="F74" s="64"/>
+      <c r="G74" s="64"/>
+      <c r="H74" s="64"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="64"/>
-      <c r="B75" s="64"/>
-      <c r="C75" s="64"/>
-      <c r="D75" s="64"/>
-      <c r="E75" s="64"/>
-      <c r="F75" s="64"/>
-      <c r="G75" s="64"/>
-      <c r="H75" s="64"/>
-    </row>
-    <row r="76" customFormat="false" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="62" t="s">
+      <c r="A75" s="66"/>
+      <c r="B75" s="66"/>
+      <c r="C75" s="66"/>
+      <c r="D75" s="66"/>
+      <c r="E75" s="66"/>
+      <c r="F75" s="66"/>
+      <c r="G75" s="66"/>
+      <c r="H75" s="66"/>
+    </row>
+    <row r="76" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="62"/>
-      <c r="C76" s="62"/>
-      <c r="D76" s="62"/>
-      <c r="E76" s="62"/>
-      <c r="F76" s="62"/>
-      <c r="G76" s="62"/>
-      <c r="H76" s="62"/>
+      <c r="B76" s="64"/>
+      <c r="C76" s="64"/>
+      <c r="D76" s="64"/>
+      <c r="E76" s="64"/>
+      <c r="F76" s="64"/>
+      <c r="G76" s="64"/>
+      <c r="H76" s="64"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="64"/>
-      <c r="B77" s="64"/>
-      <c r="C77" s="64"/>
-      <c r="D77" s="64"/>
-      <c r="E77" s="64"/>
-      <c r="F77" s="64"/>
-      <c r="G77" s="64"/>
-      <c r="H77" s="64"/>
-    </row>
-    <row r="78" customFormat="false" ht="30.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="62" t="s">
+      <c r="A77" s="66"/>
+      <c r="B77" s="66"/>
+      <c r="C77" s="66"/>
+      <c r="D77" s="66"/>
+      <c r="E77" s="66"/>
+      <c r="F77" s="66"/>
+      <c r="G77" s="66"/>
+      <c r="H77" s="66"/>
+    </row>
+    <row r="78" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A78" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="62"/>
-      <c r="C78" s="62"/>
-      <c r="D78" s="62"/>
-      <c r="E78" s="62"/>
-      <c r="F78" s="62"/>
-      <c r="G78" s="62"/>
-      <c r="H78" s="62"/>
+      <c r="B78" s="64"/>
+      <c r="C78" s="64"/>
+      <c r="D78" s="64"/>
+      <c r="E78" s="64"/>
+      <c r="F78" s="64"/>
+      <c r="G78" s="64"/>
+      <c r="H78" s="64"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
-      <c r="B79" s="64"/>
-      <c r="C79" s="64"/>
-      <c r="D79" s="64"/>
-      <c r="E79" s="64"/>
-      <c r="F79" s="64"/>
-      <c r="G79" s="64"/>
-      <c r="H79" s="64"/>
-    </row>
-    <row r="80" customFormat="false" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="62" t="s">
+      <c r="B79" s="66"/>
+      <c r="C79" s="66"/>
+      <c r="D79" s="66"/>
+      <c r="E79" s="66"/>
+      <c r="F79" s="66"/>
+      <c r="G79" s="66"/>
+      <c r="H79" s="66"/>
+    </row>
+    <row r="80" customFormat="false" ht="60.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A80" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="62"/>
-      <c r="C80" s="62"/>
-      <c r="D80" s="62"/>
-      <c r="E80" s="62"/>
-      <c r="F80" s="62"/>
-      <c r="G80" s="62"/>
-      <c r="H80" s="62"/>
+      <c r="B80" s="64"/>
+      <c r="C80" s="64"/>
+      <c r="D80" s="64"/>
+      <c r="E80" s="64"/>
+      <c r="F80" s="64"/>
+      <c r="G80" s="64"/>
+      <c r="H80" s="64"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="64"/>
-      <c r="B81" s="64"/>
-      <c r="C81" s="64"/>
-      <c r="D81" s="64"/>
-      <c r="E81" s="64"/>
-      <c r="F81" s="64"/>
-      <c r="G81" s="64"/>
-      <c r="H81" s="64"/>
-    </row>
-    <row r="82" customFormat="false" ht="48.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="62" t="s">
+      <c r="A81" s="66"/>
+      <c r="B81" s="66"/>
+      <c r="C81" s="66"/>
+      <c r="D81" s="66"/>
+      <c r="E81" s="66"/>
+      <c r="F81" s="66"/>
+      <c r="G81" s="66"/>
+      <c r="H81" s="66"/>
+    </row>
+    <row r="82" customFormat="false" ht="53.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A82" s="64" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="62"/>
-      <c r="C82" s="62"/>
-      <c r="D82" s="62"/>
-      <c r="E82" s="62"/>
-      <c r="F82" s="62"/>
-      <c r="G82" s="62"/>
-      <c r="H82" s="62"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
+      <c r="D82" s="64"/>
+      <c r="E82" s="64"/>
+      <c r="F82" s="64"/>
+      <c r="G82" s="64"/>
+      <c r="H82" s="64"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="64"/>
-      <c r="B83" s="64"/>
-      <c r="C83" s="64"/>
-      <c r="D83" s="64"/>
-      <c r="E83" s="64"/>
-      <c r="F83" s="64"/>
-      <c r="G83" s="64"/>
-      <c r="H83" s="64"/>
+      <c r="A83" s="66"/>
+      <c r="B83" s="66"/>
+      <c r="C83" s="66"/>
+      <c r="D83" s="66"/>
+      <c r="E83" s="66"/>
+      <c r="F83" s="66"/>
+      <c r="G83" s="66"/>
+      <c r="H83" s="66"/>
     </row>
     <row r="84" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="62" t="s">
+      <c r="A84" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="62"/>
-      <c r="C84" s="62"/>
-      <c r="D84" s="62"/>
-      <c r="E84" s="62"/>
-      <c r="F84" s="62"/>
-      <c r="G84" s="62"/>
-      <c r="H84" s="62"/>
+      <c r="B84" s="64"/>
+      <c r="C84" s="64"/>
+      <c r="D84" s="64"/>
+      <c r="E84" s="64"/>
+      <c r="F84" s="64"/>
+      <c r="G84" s="64"/>
+      <c r="H84" s="64"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="64"/>
-      <c r="B85" s="64"/>
-      <c r="C85" s="64"/>
-      <c r="D85" s="64"/>
-      <c r="E85" s="64"/>
-      <c r="F85" s="64"/>
-      <c r="G85" s="64"/>
-      <c r="H85" s="64"/>
+      <c r="A85" s="66"/>
+      <c r="B85" s="66"/>
+      <c r="C85" s="66"/>
+      <c r="D85" s="66"/>
+      <c r="E85" s="66"/>
+      <c r="F85" s="66"/>
+      <c r="G85" s="66"/>
+      <c r="H85" s="66"/>
     </row>
     <row r="86" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="62" t="s">
+      <c r="A86" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="B86" s="62"/>
-      <c r="C86" s="62"/>
-      <c r="D86" s="62"/>
-      <c r="E86" s="62"/>
-      <c r="F86" s="62"/>
-      <c r="G86" s="62"/>
-      <c r="H86" s="62"/>
+      <c r="B86" s="64"/>
+      <c r="C86" s="64"/>
+      <c r="D86" s="64"/>
+      <c r="E86" s="64"/>
+      <c r="F86" s="64"/>
+      <c r="G86" s="64"/>
+      <c r="H86" s="64"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/web/media/templates/fac-template.xlsx
+++ b/web/media/templates/fac-template.xlsx
@@ -459,10 +459,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="3">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
+    <numFmt numFmtId="167" formatCode="General"/>
+    <numFmt numFmtId="168" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -720,7 +722,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -818,7 +820,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -834,7 +836,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -854,7 +856,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -889,8 +891,8 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -901,6 +903,10 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="168" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -991,12 +997,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -1072,9 +1078,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>74880</xdr:colOff>
+      <xdr:colOff>74520</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>145080</xdr:rowOff>
+      <xdr:rowOff>144720</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1088,7 +1094,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39600" y="0"/>
-          <a:ext cx="2891160" cy="716400"/>
+          <a:ext cx="2890800" cy="716040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1111,10 +1117,10 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B90" activeCellId="0" sqref="B90"/>
+      <selection pane="topLeft" activeCell="M27" activeCellId="0" sqref="M27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.12"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="11.52"/>
@@ -1123,7 +1129,6 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="11.54"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1341,7 +1346,10 @@
       <c r="E19" s="23"/>
       <c r="F19" s="24"/>
       <c r="G19" s="25"/>
-      <c r="H19" s="26"/>
+      <c r="H19" s="26" t="n">
+        <f aca="false">SUM(G19*F19)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="22"/>
@@ -1351,7 +1359,10 @@
       <c r="E20" s="27"/>
       <c r="F20" s="28"/>
       <c r="G20" s="29"/>
-      <c r="H20" s="30"/>
+      <c r="H20" s="30" t="n">
+        <f aca="false">SUM(G20*F20)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="22"/>
@@ -1361,7 +1372,10 @@
       <c r="E21" s="27"/>
       <c r="F21" s="28"/>
       <c r="G21" s="29"/>
-      <c r="H21" s="30"/>
+      <c r="H21" s="30" t="n">
+        <f aca="false">SUM(G21*F21)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="22"/>
@@ -1371,7 +1385,10 @@
       <c r="E22" s="27"/>
       <c r="F22" s="28"/>
       <c r="G22" s="29"/>
-      <c r="H22" s="30"/>
+      <c r="H22" s="30" t="n">
+        <f aca="false">SUM(G22*F22)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="22"/>
@@ -1381,7 +1398,10 @@
       <c r="E23" s="27"/>
       <c r="F23" s="28"/>
       <c r="G23" s="29"/>
-      <c r="H23" s="30"/>
+      <c r="H23" s="30" t="n">
+        <f aca="false">SUM(G23*F23)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="22"/>
@@ -1391,7 +1411,10 @@
       <c r="E24" s="27"/>
       <c r="F24" s="28"/>
       <c r="G24" s="29"/>
-      <c r="H24" s="30"/>
+      <c r="H24" s="30" t="n">
+        <f aca="false">SUM(G24*F24)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="22"/>
@@ -1401,7 +1424,10 @@
       <c r="E25" s="27"/>
       <c r="F25" s="28"/>
       <c r="G25" s="29"/>
-      <c r="H25" s="30"/>
+      <c r="H25" s="30" t="n">
+        <f aca="false">SUM(G25*F25)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="22"/>
@@ -1411,7 +1437,10 @@
       <c r="E26" s="27"/>
       <c r="F26" s="28"/>
       <c r="G26" s="29"/>
-      <c r="H26" s="30"/>
+      <c r="H26" s="30" t="n">
+        <f aca="false">SUM(G26*F26)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="22"/>
@@ -1421,7 +1450,10 @@
       <c r="E27" s="27"/>
       <c r="F27" s="28"/>
       <c r="G27" s="29"/>
-      <c r="H27" s="30"/>
+      <c r="H27" s="30" t="n">
+        <f aca="false">SUM(G27*F27)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="22"/>
@@ -1431,7 +1463,10 @@
       <c r="E28" s="27"/>
       <c r="F28" s="28"/>
       <c r="G28" s="29"/>
-      <c r="H28" s="30"/>
+      <c r="H28" s="30" t="n">
+        <f aca="false">SUM(G28*F28)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="22"/>
@@ -1441,7 +1476,10 @@
       <c r="E29" s="27"/>
       <c r="F29" s="28"/>
       <c r="G29" s="29"/>
-      <c r="H29" s="30"/>
+      <c r="H29" s="30" t="n">
+        <f aca="false">SUM(G29*F29)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="22"/>
@@ -1451,7 +1489,10 @@
       <c r="E30" s="27"/>
       <c r="F30" s="28"/>
       <c r="G30" s="29"/>
-      <c r="H30" s="30"/>
+      <c r="H30" s="30" t="n">
+        <f aca="false">SUM(G30*F30)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="22"/>
@@ -1461,7 +1502,10 @@
       <c r="E31" s="27"/>
       <c r="F31" s="28"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="30"/>
+      <c r="H31" s="30" t="n">
+        <f aca="false">SUM(G31*F31)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="22"/>
@@ -1471,7 +1515,10 @@
       <c r="E32" s="27"/>
       <c r="F32" s="28"/>
       <c r="G32" s="29"/>
-      <c r="H32" s="30"/>
+      <c r="H32" s="30" t="n">
+        <f aca="false">SUM(G32*F32)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="22"/>
@@ -1481,7 +1528,10 @@
       <c r="E33" s="27"/>
       <c r="F33" s="28"/>
       <c r="G33" s="29"/>
-      <c r="H33" s="30"/>
+      <c r="H33" s="30" t="n">
+        <f aca="false">SUM(G33*F33)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="22"/>
@@ -1491,7 +1541,10 @@
       <c r="E34" s="27"/>
       <c r="F34" s="28"/>
       <c r="G34" s="29"/>
-      <c r="H34" s="30"/>
+      <c r="H34" s="30" t="n">
+        <f aca="false">SUM(G34*F34)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="22"/>
@@ -1501,7 +1554,10 @@
       <c r="E35" s="27"/>
       <c r="F35" s="28"/>
       <c r="G35" s="29"/>
-      <c r="H35" s="30"/>
+      <c r="H35" s="30" t="n">
+        <f aca="false">SUM(G35*F35)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="22"/>
@@ -1511,7 +1567,10 @@
       <c r="E36" s="27"/>
       <c r="F36" s="28"/>
       <c r="G36" s="29"/>
-      <c r="H36" s="30"/>
+      <c r="H36" s="30" t="n">
+        <f aca="false">SUM(G36*F36)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="22"/>
@@ -1521,7 +1580,10 @@
       <c r="E37" s="27"/>
       <c r="F37" s="28"/>
       <c r="G37" s="29"/>
-      <c r="H37" s="30"/>
+      <c r="H37" s="30" t="n">
+        <f aca="false">SUM(G37*F37)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="22"/>
@@ -1531,7 +1593,10 @@
       <c r="E38" s="27"/>
       <c r="F38" s="28"/>
       <c r="G38" s="29"/>
-      <c r="H38" s="30"/>
+      <c r="H38" s="30" t="n">
+        <f aca="false">SUM(G38*F38)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="22"/>
@@ -1541,7 +1606,10 @@
       <c r="E39" s="27"/>
       <c r="F39" s="28"/>
       <c r="G39" s="29"/>
-      <c r="H39" s="30"/>
+      <c r="H39" s="30" t="n">
+        <f aca="false">SUM(G39*F39)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="22"/>
@@ -1551,7 +1619,10 @@
       <c r="E40" s="27"/>
       <c r="F40" s="28"/>
       <c r="G40" s="29"/>
-      <c r="H40" s="30"/>
+      <c r="H40" s="30" t="n">
+        <f aca="false">SUM(G40*F40)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="22"/>
@@ -1561,7 +1632,10 @@
       <c r="E41" s="27"/>
       <c r="F41" s="28"/>
       <c r="G41" s="29"/>
-      <c r="H41" s="30"/>
+      <c r="H41" s="30" t="n">
+        <f aca="false">SUM(G41*F41)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A42" s="22"/>
@@ -1571,7 +1645,10 @@
       <c r="E42" s="27"/>
       <c r="F42" s="28"/>
       <c r="G42" s="29"/>
-      <c r="H42" s="30"/>
+      <c r="H42" s="30" t="n">
+        <f aca="false">SUM(G42*F42)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A43" s="22"/>
@@ -1581,7 +1658,10 @@
       <c r="E43" s="27"/>
       <c r="F43" s="28"/>
       <c r="G43" s="29"/>
-      <c r="H43" s="30"/>
+      <c r="H43" s="30" t="n">
+        <f aca="false">SUM(G43*F43)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A44" s="31"/>
@@ -1591,7 +1671,10 @@
       <c r="E44" s="32"/>
       <c r="F44" s="33"/>
       <c r="G44" s="34"/>
-      <c r="H44" s="35"/>
+      <c r="H44" s="35" t="n">
+        <f aca="false">SUM(G44*F44)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A45" s="21" t="s">
@@ -1620,26 +1703,32 @@
       <c r="A46" s="41" t="n">
         <v>0.2</v>
       </c>
-      <c r="B46" s="42"/>
+      <c r="B46" s="42" t="n">
+        <f aca="false">SUM(F19:F44)</f>
+        <v>0</v>
+      </c>
       <c r="C46" s="43" t="n">
         <f aca="false">SUM(C45:H45)</f>
         <v>0</v>
       </c>
       <c r="D46" s="44"/>
-      <c r="E46" s="44"/>
-      <c r="F46" s="45" t="s">
+      <c r="E46" s="45" t="n">
+        <f aca="false">SUM(H47-H45)</f>
+        <v>0</v>
+      </c>
+      <c r="F46" s="46" t="s">
         <v>25</v>
       </c>
       <c r="G46" s="39"/>
-      <c r="H46" s="46" t="n">
+      <c r="H46" s="47" t="n">
         <f aca="false">SUM(H47-H45)</f>
         <v>0</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="47"/>
-      <c r="B47" s="48"/>
-      <c r="C47" s="48"/>
+      <c r="A47" s="48"/>
+      <c r="B47" s="49"/>
+      <c r="C47" s="49"/>
       <c r="D47" s="12"/>
       <c r="E47" s="12"/>
       <c r="F47" s="38" t="s">
@@ -1652,56 +1741,56 @@
       </c>
     </row>
     <row r="48" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A48" s="49" t="s">
+      <c r="A48" s="50" t="s">
         <v>27</v>
       </c>
-      <c r="B48" s="49"/>
-      <c r="C48" s="49"/>
+      <c r="B48" s="50"/>
+      <c r="C48" s="50"/>
       <c r="D48" s="12"/>
       <c r="E48" s="12"/>
-      <c r="F48" s="50" t="s">
+      <c r="F48" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="G48" s="51" t="s">
+      <c r="G48" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="H48" s="52" t="n">
+      <c r="H48" s="53" t="n">
         <f aca="false">SUM(H47+0)</f>
         <v>0</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A49" s="49" t="s">
+      <c r="A49" s="50" t="s">
         <v>30</v>
       </c>
-      <c r="B49" s="49"/>
-      <c r="C49" s="49"/>
-      <c r="D49" s="53"/>
-      <c r="E49" s="53"/>
+      <c r="B49" s="50"/>
+      <c r="C49" s="50"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="54"/>
       <c r="F49" s="0"/>
       <c r="G49" s="0"/>
       <c r="H49" s="0"/>
     </row>
     <row r="50" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A50" s="49" t="s">
+      <c r="A50" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B50" s="49"/>
-      <c r="C50" s="49"/>
-      <c r="F50" s="54"/>
-      <c r="G50" s="54"/>
-      <c r="H50" s="54"/>
+      <c r="B50" s="50"/>
+      <c r="C50" s="50"/>
+      <c r="F50" s="55"/>
+      <c r="G50" s="55"/>
+      <c r="H50" s="55"/>
     </row>
     <row r="51" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F51" s="54"/>
-      <c r="G51" s="54"/>
-      <c r="H51" s="54"/>
+      <c r="F51" s="55"/>
+      <c r="G51" s="55"/>
+      <c r="H51" s="55"/>
     </row>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A52" s="55" t="s">
+      <c r="A52" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="B52" s="55"/>
+      <c r="B52" s="56"/>
       <c r="C52" s="0"/>
       <c r="D52" s="0"/>
       <c r="E52" s="0"/>
@@ -1710,10 +1799,10 @@
       <c r="H52" s="0"/>
     </row>
     <row r="53" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A53" s="56" t="s">
+      <c r="A53" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="B53" s="57"/>
+      <c r="B53" s="58"/>
       <c r="C53" s="0"/>
       <c r="D53" s="0"/>
       <c r="E53" s="0"/>
@@ -1726,28 +1815,28 @@
       <c r="B54" s="0"/>
     </row>
     <row r="55" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="58" t="s">
+      <c r="A55" s="59" t="s">
         <v>34</v>
       </c>
-      <c r="B55" s="58"/>
-      <c r="C55" s="58"/>
-      <c r="D55" s="58"/>
-      <c r="E55" s="58"/>
-      <c r="F55" s="58"/>
-      <c r="G55" s="58"/>
-      <c r="H55" s="58"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
+      <c r="E55" s="59"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="59"/>
+      <c r="H55" s="59"/>
     </row>
     <row r="56" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="59" t="s">
+      <c r="A56" s="60" t="s">
         <v>35</v>
       </c>
-      <c r="B56" s="59"/>
-      <c r="C56" s="59"/>
-      <c r="D56" s="59"/>
-      <c r="E56" s="59"/>
-      <c r="F56" s="59"/>
-      <c r="G56" s="59"/>
-      <c r="H56" s="59"/>
+      <c r="B56" s="60"/>
+      <c r="C56" s="60"/>
+      <c r="D56" s="60"/>
+      <c r="E56" s="60"/>
+      <c r="F56" s="60"/>
+      <c r="G56" s="60"/>
+      <c r="H56" s="60"/>
     </row>
     <row r="57" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0"/>
@@ -1760,321 +1849,321 @@
       <c r="H57" s="0"/>
     </row>
     <row r="58" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A58" s="60" t="s">
+      <c r="A58" s="61" t="s">
         <v>36</v>
       </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="60"/>
-      <c r="D58" s="60"/>
-      <c r="E58" s="60"/>
-      <c r="F58" s="60"/>
-      <c r="G58" s="60"/>
+      <c r="B58" s="61"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="61"/>
+      <c r="E58" s="61"/>
+      <c r="F58" s="61"/>
+      <c r="G58" s="61"/>
       <c r="H58" s="0"/>
     </row>
     <row r="59" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B59" s="61"/>
-      <c r="C59" s="62"/>
-      <c r="D59" s="63"/>
-      <c r="E59" s="63"/>
-      <c r="F59" s="63"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="64"/>
+      <c r="E59" s="64"/>
+      <c r="F59" s="64"/>
     </row>
     <row r="60" customFormat="false" ht="22.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A60" s="64" t="s">
+      <c r="A60" s="65" t="s">
         <v>37</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="64"/>
-      <c r="E60" s="64"/>
-      <c r="F60" s="64"/>
-      <c r="G60" s="64"/>
-      <c r="H60" s="64"/>
+      <c r="B60" s="65"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="65"/>
+      <c r="E60" s="65"/>
+      <c r="F60" s="65"/>
+      <c r="G60" s="65"/>
+      <c r="H60" s="65"/>
     </row>
     <row r="61" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A61" s="65"/>
-      <c r="B61" s="65"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="65"/>
-      <c r="E61" s="65"/>
-      <c r="F61" s="65"/>
-      <c r="G61" s="65"/>
-      <c r="H61" s="65"/>
+      <c r="A61" s="66"/>
+      <c r="B61" s="66"/>
+      <c r="C61" s="66"/>
+      <c r="D61" s="66"/>
+      <c r="E61" s="66"/>
+      <c r="F61" s="66"/>
+      <c r="G61" s="66"/>
+      <c r="H61" s="66"/>
     </row>
     <row r="62" customFormat="false" ht="53.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A62" s="64" t="s">
+      <c r="A62" s="65" t="s">
         <v>38</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="64"/>
-      <c r="E62" s="64"/>
-      <c r="F62" s="64"/>
-      <c r="G62" s="64"/>
-      <c r="H62" s="64"/>
+      <c r="B62" s="65"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="65"/>
+      <c r="E62" s="65"/>
+      <c r="F62" s="65"/>
+      <c r="G62" s="65"/>
+      <c r="H62" s="65"/>
     </row>
     <row r="63" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A63" s="0"/>
-      <c r="B63" s="66"/>
-      <c r="C63" s="66"/>
-      <c r="D63" s="66"/>
-      <c r="E63" s="66"/>
-      <c r="F63" s="66"/>
-      <c r="G63" s="66"/>
-      <c r="H63" s="66"/>
+      <c r="B63" s="67"/>
+      <c r="C63" s="67"/>
+      <c r="D63" s="67"/>
+      <c r="E63" s="67"/>
+      <c r="F63" s="67"/>
+      <c r="G63" s="67"/>
+      <c r="H63" s="67"/>
     </row>
     <row r="64" customFormat="false" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A64" s="64" t="s">
+      <c r="A64" s="65" t="s">
         <v>39</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="64"/>
-      <c r="E64" s="64"/>
-      <c r="F64" s="64"/>
-      <c r="G64" s="64"/>
-      <c r="H64" s="64"/>
+      <c r="B64" s="65"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="65"/>
+      <c r="E64" s="65"/>
+      <c r="F64" s="65"/>
+      <c r="G64" s="65"/>
+      <c r="H64" s="65"/>
     </row>
     <row r="65" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A65" s="66"/>
-      <c r="B65" s="66"/>
-      <c r="C65" s="66"/>
-      <c r="D65" s="66"/>
-      <c r="E65" s="66"/>
-      <c r="F65" s="66"/>
-      <c r="G65" s="66"/>
-      <c r="H65" s="66"/>
+      <c r="A65" s="67"/>
+      <c r="B65" s="67"/>
+      <c r="C65" s="67"/>
+      <c r="D65" s="67"/>
+      <c r="E65" s="67"/>
+      <c r="F65" s="67"/>
+      <c r="G65" s="67"/>
+      <c r="H65" s="67"/>
     </row>
     <row r="66" customFormat="false" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A66" s="64" t="s">
+      <c r="A66" s="65" t="s">
         <v>40</v>
       </c>
-      <c r="B66" s="64"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="64"/>
-      <c r="E66" s="64"/>
-      <c r="F66" s="64"/>
-      <c r="G66" s="64"/>
-      <c r="H66" s="64"/>
+      <c r="B66" s="65"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="65"/>
+      <c r="E66" s="65"/>
+      <c r="F66" s="65"/>
+      <c r="G66" s="65"/>
+      <c r="H66" s="65"/>
     </row>
     <row r="67" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A67" s="66"/>
-      <c r="B67" s="66"/>
-      <c r="C67" s="66"/>
-      <c r="D67" s="66"/>
-      <c r="E67" s="66"/>
-      <c r="F67" s="66"/>
-      <c r="G67" s="66"/>
-      <c r="H67" s="66"/>
+      <c r="A67" s="67"/>
+      <c r="B67" s="67"/>
+      <c r="C67" s="67"/>
+      <c r="D67" s="67"/>
+      <c r="E67" s="67"/>
+      <c r="F67" s="67"/>
+      <c r="G67" s="67"/>
+      <c r="H67" s="67"/>
     </row>
     <row r="68" customFormat="false" ht="64.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="64" t="s">
+      <c r="A68" s="65" t="s">
         <v>41</v>
       </c>
-      <c r="B68" s="64"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="64"/>
-      <c r="E68" s="64"/>
-      <c r="F68" s="64"/>
-      <c r="G68" s="64"/>
-      <c r="H68" s="64"/>
+      <c r="B68" s="65"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="65"/>
+      <c r="E68" s="65"/>
+      <c r="F68" s="65"/>
+      <c r="G68" s="65"/>
+      <c r="H68" s="65"/>
     </row>
     <row r="69" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A69" s="66"/>
-      <c r="B69" s="66"/>
-      <c r="C69" s="66"/>
-      <c r="D69" s="66"/>
-      <c r="E69" s="66"/>
-      <c r="F69" s="66"/>
-      <c r="G69" s="66"/>
-      <c r="H69" s="66"/>
+      <c r="A69" s="67"/>
+      <c r="B69" s="67"/>
+      <c r="C69" s="67"/>
+      <c r="D69" s="67"/>
+      <c r="E69" s="67"/>
+      <c r="F69" s="67"/>
+      <c r="G69" s="67"/>
+      <c r="H69" s="67"/>
     </row>
     <row r="70" customFormat="false" ht="32.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="64" t="s">
+      <c r="A70" s="65" t="s">
         <v>42</v>
       </c>
-      <c r="B70" s="64"/>
-      <c r="C70" s="64"/>
-      <c r="D70" s="64"/>
-      <c r="E70" s="64"/>
-      <c r="F70" s="64"/>
-      <c r="G70" s="64"/>
-      <c r="H70" s="64"/>
+      <c r="B70" s="65"/>
+      <c r="C70" s="65"/>
+      <c r="D70" s="65"/>
+      <c r="E70" s="65"/>
+      <c r="F70" s="65"/>
+      <c r="G70" s="65"/>
+      <c r="H70" s="65"/>
     </row>
     <row r="71" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A71" s="66"/>
-      <c r="B71" s="66"/>
-      <c r="C71" s="66"/>
-      <c r="D71" s="66"/>
-      <c r="E71" s="66"/>
-      <c r="F71" s="66"/>
-      <c r="G71" s="66"/>
-      <c r="H71" s="66"/>
+      <c r="A71" s="67"/>
+      <c r="B71" s="67"/>
+      <c r="C71" s="67"/>
+      <c r="D71" s="67"/>
+      <c r="E71" s="67"/>
+      <c r="F71" s="67"/>
+      <c r="G71" s="67"/>
+      <c r="H71" s="67"/>
     </row>
     <row r="72" customFormat="false" ht="80.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="64" t="s">
+      <c r="A72" s="65" t="s">
         <v>43</v>
       </c>
-      <c r="B72" s="64"/>
-      <c r="C72" s="64"/>
-      <c r="D72" s="64"/>
-      <c r="E72" s="64"/>
-      <c r="F72" s="64"/>
-      <c r="G72" s="64"/>
-      <c r="H72" s="64"/>
+      <c r="B72" s="65"/>
+      <c r="C72" s="65"/>
+      <c r="D72" s="65"/>
+      <c r="E72" s="65"/>
+      <c r="F72" s="65"/>
+      <c r="G72" s="65"/>
+      <c r="H72" s="65"/>
     </row>
     <row r="73" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A73" s="66"/>
-      <c r="B73" s="66"/>
-      <c r="C73" s="66"/>
-      <c r="D73" s="66"/>
-      <c r="E73" s="66"/>
-      <c r="F73" s="66"/>
-      <c r="G73" s="66"/>
-      <c r="H73" s="66"/>
+      <c r="A73" s="67"/>
+      <c r="B73" s="67"/>
+      <c r="C73" s="67"/>
+      <c r="D73" s="67"/>
+      <c r="E73" s="67"/>
+      <c r="F73" s="67"/>
+      <c r="G73" s="67"/>
+      <c r="H73" s="67"/>
     </row>
     <row r="74" customFormat="false" ht="31.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="64" t="s">
+      <c r="A74" s="65" t="s">
         <v>44</v>
       </c>
-      <c r="B74" s="64"/>
-      <c r="C74" s="64"/>
-      <c r="D74" s="64"/>
-      <c r="E74" s="64"/>
-      <c r="F74" s="64"/>
-      <c r="G74" s="64"/>
-      <c r="H74" s="64"/>
+      <c r="B74" s="65"/>
+      <c r="C74" s="65"/>
+      <c r="D74" s="65"/>
+      <c r="E74" s="65"/>
+      <c r="F74" s="65"/>
+      <c r="G74" s="65"/>
+      <c r="H74" s="65"/>
     </row>
     <row r="75" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A75" s="66"/>
-      <c r="B75" s="66"/>
-      <c r="C75" s="66"/>
-      <c r="D75" s="66"/>
-      <c r="E75" s="66"/>
-      <c r="F75" s="66"/>
-      <c r="G75" s="66"/>
-      <c r="H75" s="66"/>
+      <c r="A75" s="67"/>
+      <c r="B75" s="67"/>
+      <c r="C75" s="67"/>
+      <c r="D75" s="67"/>
+      <c r="E75" s="67"/>
+      <c r="F75" s="67"/>
+      <c r="G75" s="67"/>
+      <c r="H75" s="67"/>
     </row>
     <row r="76" customFormat="false" ht="56.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="64" t="s">
+      <c r="A76" s="65" t="s">
         <v>45</v>
       </c>
-      <c r="B76" s="64"/>
-      <c r="C76" s="64"/>
-      <c r="D76" s="64"/>
-      <c r="E76" s="64"/>
-      <c r="F76" s="64"/>
-      <c r="G76" s="64"/>
-      <c r="H76" s="64"/>
+      <c r="B76" s="65"/>
+      <c r="C76" s="65"/>
+      <c r="D76" s="65"/>
+      <c r="E76" s="65"/>
+      <c r="F76" s="65"/>
+      <c r="G76" s="65"/>
+      <c r="H76" s="65"/>
     </row>
     <row r="77" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A77" s="66"/>
-      <c r="B77" s="66"/>
-      <c r="C77" s="66"/>
-      <c r="D77" s="66"/>
-      <c r="E77" s="66"/>
-      <c r="F77" s="66"/>
-      <c r="G77" s="66"/>
-      <c r="H77" s="66"/>
+      <c r="A77" s="67"/>
+      <c r="B77" s="67"/>
+      <c r="C77" s="67"/>
+      <c r="D77" s="67"/>
+      <c r="E77" s="67"/>
+      <c r="F77" s="67"/>
+      <c r="G77" s="67"/>
+      <c r="H77" s="67"/>
     </row>
     <row r="78" customFormat="false" ht="46.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A78" s="64" t="s">
+      <c r="A78" s="65" t="s">
         <v>46</v>
       </c>
-      <c r="B78" s="64"/>
-      <c r="C78" s="64"/>
-      <c r="D78" s="64"/>
-      <c r="E78" s="64"/>
-      <c r="F78" s="64"/>
-      <c r="G78" s="64"/>
-      <c r="H78" s="64"/>
+      <c r="B78" s="65"/>
+      <c r="C78" s="65"/>
+      <c r="D78" s="65"/>
+      <c r="E78" s="65"/>
+      <c r="F78" s="65"/>
+      <c r="G78" s="65"/>
+      <c r="H78" s="65"/>
     </row>
     <row r="79" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A79" s="0"/>
-      <c r="B79" s="66"/>
-      <c r="C79" s="66"/>
-      <c r="D79" s="66"/>
-      <c r="E79" s="66"/>
-      <c r="F79" s="66"/>
-      <c r="G79" s="66"/>
-      <c r="H79" s="66"/>
+      <c r="B79" s="67"/>
+      <c r="C79" s="67"/>
+      <c r="D79" s="67"/>
+      <c r="E79" s="67"/>
+      <c r="F79" s="67"/>
+      <c r="G79" s="67"/>
+      <c r="H79" s="67"/>
     </row>
     <row r="80" customFormat="false" ht="60.2" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A80" s="64" t="s">
+      <c r="A80" s="65" t="s">
         <v>47</v>
       </c>
-      <c r="B80" s="64"/>
-      <c r="C80" s="64"/>
-      <c r="D80" s="64"/>
-      <c r="E80" s="64"/>
-      <c r="F80" s="64"/>
-      <c r="G80" s="64"/>
-      <c r="H80" s="64"/>
+      <c r="B80" s="65"/>
+      <c r="C80" s="65"/>
+      <c r="D80" s="65"/>
+      <c r="E80" s="65"/>
+      <c r="F80" s="65"/>
+      <c r="G80" s="65"/>
+      <c r="H80" s="65"/>
     </row>
     <row r="81" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A81" s="66"/>
-      <c r="B81" s="66"/>
-      <c r="C81" s="66"/>
-      <c r="D81" s="66"/>
-      <c r="E81" s="66"/>
-      <c r="F81" s="66"/>
-      <c r="G81" s="66"/>
-      <c r="H81" s="66"/>
+      <c r="A81" s="67"/>
+      <c r="B81" s="67"/>
+      <c r="C81" s="67"/>
+      <c r="D81" s="67"/>
+      <c r="E81" s="67"/>
+      <c r="F81" s="67"/>
+      <c r="G81" s="67"/>
+      <c r="H81" s="67"/>
     </row>
     <row r="82" customFormat="false" ht="53.65" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A82" s="64" t="s">
+      <c r="A82" s="65" t="s">
         <v>48</v>
       </c>
-      <c r="B82" s="64"/>
-      <c r="C82" s="64"/>
-      <c r="D82" s="64"/>
-      <c r="E82" s="64"/>
-      <c r="F82" s="64"/>
-      <c r="G82" s="64"/>
-      <c r="H82" s="64"/>
+      <c r="B82" s="65"/>
+      <c r="C82" s="65"/>
+      <c r="D82" s="65"/>
+      <c r="E82" s="65"/>
+      <c r="F82" s="65"/>
+      <c r="G82" s="65"/>
+      <c r="H82" s="65"/>
     </row>
     <row r="83" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A83" s="66"/>
-      <c r="B83" s="66"/>
-      <c r="C83" s="66"/>
-      <c r="D83" s="66"/>
-      <c r="E83" s="66"/>
-      <c r="F83" s="66"/>
-      <c r="G83" s="66"/>
-      <c r="H83" s="66"/>
+      <c r="A83" s="67"/>
+      <c r="B83" s="67"/>
+      <c r="C83" s="67"/>
+      <c r="D83" s="67"/>
+      <c r="E83" s="67"/>
+      <c r="F83" s="67"/>
+      <c r="G83" s="67"/>
+      <c r="H83" s="67"/>
     </row>
     <row r="84" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A84" s="64" t="s">
+      <c r="A84" s="65" t="s">
         <v>49</v>
       </c>
-      <c r="B84" s="64"/>
-      <c r="C84" s="64"/>
-      <c r="D84" s="64"/>
-      <c r="E84" s="64"/>
-      <c r="F84" s="64"/>
-      <c r="G84" s="64"/>
-      <c r="H84" s="64"/>
+      <c r="B84" s="65"/>
+      <c r="C84" s="65"/>
+      <c r="D84" s="65"/>
+      <c r="E84" s="65"/>
+      <c r="F84" s="65"/>
+      <c r="G84" s="65"/>
+      <c r="H84" s="65"/>
     </row>
     <row r="85" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A85" s="66"/>
-      <c r="B85" s="66"/>
-      <c r="C85" s="66"/>
-      <c r="D85" s="66"/>
-      <c r="E85" s="66"/>
-      <c r="F85" s="66"/>
-      <c r="G85" s="66"/>
-      <c r="H85" s="66"/>
+      <c r="A85" s="67"/>
+      <c r="B85" s="67"/>
+      <c r="C85" s="67"/>
+      <c r="D85" s="67"/>
+      <c r="E85" s="67"/>
+      <c r="F85" s="67"/>
+      <c r="G85" s="67"/>
+      <c r="H85" s="67"/>
     </row>
     <row r="86" customFormat="false" ht="20.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A86" s="64" t="s">
+      <c r="A86" s="65" t="s">
         <v>50</v>
       </c>
-      <c r="B86" s="64"/>
-      <c r="C86" s="64"/>
-      <c r="D86" s="64"/>
-      <c r="E86" s="64"/>
-      <c r="F86" s="64"/>
-      <c r="G86" s="64"/>
-      <c r="H86" s="64"/>
+      <c r="B86" s="65"/>
+      <c r="C86" s="65"/>
+      <c r="D86" s="65"/>
+      <c r="E86" s="65"/>
+      <c r="F86" s="65"/>
+      <c r="G86" s="65"/>
+      <c r="H86" s="65"/>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/web/media/templates/fac-template.xlsx
+++ b/web/media/templates/fac-template.xlsx
@@ -20,12 +20,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t xml:space="preserve">Référence client</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ID TVA :</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t xml:space="preserve">Vulaines sur Seine, le:</t>
   </si>
   <si>
     <t xml:space="preserve">Armoires. Coffrets. Cablages. Etudes. Services.</t>
@@ -34,12 +31,21 @@
     <t xml:space="preserve">14 Rue du Petit Rocher</t>
   </si>
   <si>
+    <t xml:space="preserve">A.C.C.E.S</t>
+  </si>
+  <si>
     <t xml:space="preserve">77870 Vulaines sur Seine</t>
   </si>
   <si>
+    <t xml:space="preserve">14 rue du petit rocher</t>
+  </si>
+  <si>
     <t xml:space="preserve">Tél : 01.60.71.62.39</t>
   </si>
   <si>
+    <t xml:space="preserve">Vulaines sur Seine</t>
+  </si>
+  <si>
     <t xml:space="preserve">Fax : 01.60.71.62.32</t>
   </si>
   <si>
@@ -52,9 +58,6 @@
     <t xml:space="preserve">Fournisseur</t>
   </si>
   <si>
-    <t xml:space="preserve">V.D.S.</t>
-  </si>
-  <si>
     <t xml:space="preserve">A l'intention de :</t>
   </si>
   <si>
@@ -82,7 +85,7 @@
     <t xml:space="preserve">PU Net</t>
   </si>
   <si>
-    <t xml:space="preserve">Prix Total</t>
+    <t xml:space="preserve">PT HT</t>
   </si>
   <si>
     <t xml:space="preserve">A.C.C.E.S. SARL - R.C. Montereau : B4403561866 - APE : 2712Z</t>
@@ -100,7 +103,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.00\ [$€-40C];[RED]\-#,##0.00\ [$€-40C]"/>
     <numFmt numFmtId="166" formatCode="0.00\ %"/>
   </numFmts>
-  <fonts count="17">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -124,6 +127,15 @@
     </font>
     <font>
       <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <i val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -318,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -335,12 +347,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -351,23 +363,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -375,19 +391,19 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -395,19 +411,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -415,7 +431,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -447,7 +463,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -463,7 +479,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -483,7 +499,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -495,27 +511,27 @@
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -523,11 +539,11 @@
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -554,9 +570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>74160</xdr:colOff>
+      <xdr:colOff>73800</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>144360</xdr:rowOff>
+      <xdr:rowOff>144000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -570,7 +586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39600" y="0"/>
-          <a:ext cx="2890440" cy="715680"/>
+          <a:ext cx="2890080" cy="715320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -592,8 +608,8 @@
   </sheetPr>
   <dimension ref="A1:H1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A4" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="I14" activeCellId="0" sqref="I14"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -605,6 +621,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.59"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -625,35 +642,33 @@
         <v>0</v>
       </c>
       <c r="F2" s="4"/>
-      <c r="G2" s="4"/>
+      <c r="G2" s="5"/>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="3"/>
       <c r="B3" s="3"/>
       <c r="C3" s="3"/>
       <c r="D3" s="3"/>
-      <c r="E3" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="3"/>
       <c r="B4" s="3"/>
       <c r="C4" s="3"/>
       <c r="D4" s="3"/>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="5"/>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="6"/>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="6"/>
+      <c r="A5" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="7"/>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
       <c r="G5" s="3"/>
@@ -668,57 +683,65 @@
       <c r="G6" s="3"/>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3"/>
+      <c r="E7" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="3"/>
-      <c r="E7" s="8"/>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
     </row>
     <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="3"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
+      <c r="E8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="F8" s="10"/>
+      <c r="G8" s="10"/>
     </row>
     <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
+      <c r="A9" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9" s="8"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
+      <c r="E9" s="11" t="n">
+        <v>77870</v>
+      </c>
+      <c r="F9" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="12"/>
     </row>
     <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
+      <c r="A10" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
     </row>
     <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="12"/>
-      <c r="C11" s="12"/>
+      <c r="A11" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="13"/>
+      <c r="C11" s="13"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="13"/>
+      <c r="E11" s="14"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
@@ -732,461 +755,381 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
+      <c r="A13" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="15"/>
-      <c r="C14" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G14" s="17"/>
-      <c r="H14" s="18"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="18" t="s">
+        <v>12</v>
+      </c>
+      <c r="G14" s="18"/>
+      <c r="H14" s="19"/>
     </row>
     <row r="15" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B15" s="19"/>
+      <c r="A15" s="20" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="20"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="20" t="s">
-        <v>13</v>
-      </c>
-      <c r="G15" s="20"/>
-      <c r="H15" s="18"/>
+      <c r="F15" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="B16" s="20"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="23"/>
+      <c r="A16" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="21"/>
+      <c r="C16" s="21"/>
+      <c r="D16" s="22"/>
+      <c r="E16" s="22"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
+      <c r="H16" s="24"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="25"/>
+      <c r="A17" s="25" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="23"/>
+      <c r="H17" s="26"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="B18" s="27" t="s">
+      <c r="A18" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="26" t="s">
+      <c r="B18" s="28" t="s">
         <v>18</v>
       </c>
-      <c r="G18" s="26" t="s">
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="H18" s="26" t="s">
+      <c r="G18" s="27" t="s">
         <v>20</v>
       </c>
+      <c r="H18" s="27" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="28"/>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
-      <c r="E19" s="29"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="32" t="n">
-        <f aca="false">SUM(G19*F19)</f>
-        <v>0</v>
-      </c>
+      <c r="A19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="31"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="33"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="28"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="33"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
-      <c r="G20" s="35"/>
-      <c r="H20" s="36" t="n">
-        <f aca="false">SUM(G20*F20)</f>
-        <v>0</v>
-      </c>
+      <c r="A20" s="29"/>
+      <c r="B20" s="34"/>
+      <c r="C20" s="34"/>
+      <c r="D20" s="34"/>
+      <c r="E20" s="34"/>
+      <c r="F20" s="35"/>
+      <c r="G20" s="36"/>
+      <c r="H20" s="37"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="28"/>
-      <c r="B21" s="33"/>
-      <c r="C21" s="33"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="33"/>
-      <c r="F21" s="34"/>
-      <c r="G21" s="35"/>
-      <c r="H21" s="36" t="n">
-        <f aca="false">SUM(G21*F21)</f>
-        <v>0</v>
-      </c>
+      <c r="A21" s="29"/>
+      <c r="B21" s="34"/>
+      <c r="C21" s="34"/>
+      <c r="D21" s="34"/>
+      <c r="E21" s="34"/>
+      <c r="F21" s="35"/>
+      <c r="G21" s="36"/>
+      <c r="H21" s="37"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="28"/>
-      <c r="B22" s="33"/>
-      <c r="C22" s="33"/>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33"/>
-      <c r="F22" s="34"/>
-      <c r="G22" s="35"/>
-      <c r="H22" s="36" t="n">
-        <f aca="false">SUM(G22*F22)</f>
-        <v>0</v>
-      </c>
+      <c r="A22" s="29"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+      <c r="E22" s="34"/>
+      <c r="F22" s="35"/>
+      <c r="G22" s="36"/>
+      <c r="H22" s="37"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="28"/>
-      <c r="B23" s="33"/>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33"/>
-      <c r="F23" s="34"/>
-      <c r="G23" s="35"/>
-      <c r="H23" s="36" t="n">
-        <f aca="false">SUM(G23*F23)</f>
-        <v>0</v>
-      </c>
+      <c r="A23" s="29"/>
+      <c r="B23" s="34"/>
+      <c r="C23" s="34"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="34"/>
+      <c r="F23" s="35"/>
+      <c r="G23" s="36"/>
+      <c r="H23" s="37"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="28"/>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33"/>
-      <c r="F24" s="34"/>
-      <c r="G24" s="35"/>
-      <c r="H24" s="36" t="n">
-        <f aca="false">SUM(G24*F24)</f>
-        <v>0</v>
-      </c>
+      <c r="A24" s="29"/>
+      <c r="B24" s="34"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="34"/>
+      <c r="E24" s="34"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="36"/>
+      <c r="H24" s="37"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="28"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33"/>
-      <c r="F25" s="34"/>
-      <c r="G25" s="35"/>
-      <c r="H25" s="36" t="n">
-        <f aca="false">SUM(G25*F25)</f>
-        <v>0</v>
-      </c>
+      <c r="A25" s="29"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="34"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="36"/>
+      <c r="H25" s="37"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="28"/>
-      <c r="B26" s="33"/>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33"/>
-      <c r="F26" s="34"/>
-      <c r="G26" s="35"/>
-      <c r="H26" s="36" t="n">
-        <f aca="false">SUM(G26*F26)</f>
-        <v>0</v>
-      </c>
+      <c r="A26" s="29"/>
+      <c r="B26" s="34"/>
+      <c r="C26" s="34"/>
+      <c r="D26" s="34"/>
+      <c r="E26" s="34"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="36"/>
+      <c r="H26" s="37"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="28"/>
-      <c r="B27" s="33"/>
-      <c r="C27" s="33"/>
-      <c r="D27" s="33"/>
-      <c r="E27" s="33"/>
-      <c r="F27" s="34"/>
-      <c r="G27" s="35"/>
-      <c r="H27" s="36" t="n">
-        <f aca="false">SUM(G27*F27)</f>
-        <v>0</v>
-      </c>
+      <c r="A27" s="29"/>
+      <c r="B27" s="34"/>
+      <c r="C27" s="34"/>
+      <c r="D27" s="34"/>
+      <c r="E27" s="34"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="36"/>
+      <c r="H27" s="37"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="28"/>
-      <c r="B28" s="33"/>
-      <c r="C28" s="33"/>
-      <c r="D28" s="33"/>
-      <c r="E28" s="33"/>
-      <c r="F28" s="34"/>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36" t="n">
-        <f aca="false">SUM(G28*F28)</f>
-        <v>0</v>
-      </c>
+      <c r="A28" s="29"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="35"/>
+      <c r="G28" s="36"/>
+      <c r="H28" s="37"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="28"/>
-      <c r="B29" s="33"/>
-      <c r="C29" s="33"/>
-      <c r="D29" s="33"/>
-      <c r="E29" s="33"/>
-      <c r="F29" s="34"/>
-      <c r="G29" s="35"/>
-      <c r="H29" s="36" t="n">
-        <f aca="false">SUM(G29*F29)</f>
-        <v>0</v>
-      </c>
+      <c r="A29" s="29"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="36"/>
+      <c r="H29" s="37"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="28"/>
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="34"/>
-      <c r="G30" s="35"/>
-      <c r="H30" s="36" t="n">
-        <f aca="false">SUM(G30*F30)</f>
-        <v>0</v>
-      </c>
+      <c r="A30" s="29"/>
+      <c r="B30" s="34"/>
+      <c r="C30" s="34"/>
+      <c r="D30" s="34"/>
+      <c r="E30" s="34"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="36"/>
+      <c r="H30" s="37"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="28"/>
-      <c r="B31" s="33"/>
-      <c r="C31" s="33"/>
-      <c r="D31" s="33"/>
-      <c r="E31" s="33"/>
-      <c r="F31" s="34"/>
-      <c r="G31" s="35"/>
-      <c r="H31" s="36" t="n">
-        <f aca="false">SUM(G31*F31)</f>
-        <v>0</v>
-      </c>
+      <c r="A31" s="29"/>
+      <c r="B31" s="34"/>
+      <c r="C31" s="34"/>
+      <c r="D31" s="34"/>
+      <c r="E31" s="34"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="36"/>
+      <c r="H31" s="37"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="28"/>
-      <c r="B32" s="33"/>
-      <c r="C32" s="33"/>
-      <c r="D32" s="33"/>
-      <c r="E32" s="33"/>
-      <c r="F32" s="34"/>
-      <c r="G32" s="35"/>
-      <c r="H32" s="36" t="n">
-        <f aca="false">SUM(G32*F32)</f>
-        <v>0</v>
-      </c>
+      <c r="A32" s="29"/>
+      <c r="B32" s="34"/>
+      <c r="C32" s="34"/>
+      <c r="D32" s="34"/>
+      <c r="E32" s="34"/>
+      <c r="F32" s="35"/>
+      <c r="G32" s="36"/>
+      <c r="H32" s="37"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="28"/>
-      <c r="B33" s="33"/>
-      <c r="C33" s="33"/>
-      <c r="D33" s="33"/>
-      <c r="E33" s="33"/>
-      <c r="F33" s="34"/>
-      <c r="G33" s="35"/>
-      <c r="H33" s="36" t="n">
-        <f aca="false">SUM(G33*F33)</f>
-        <v>0</v>
-      </c>
+      <c r="A33" s="29"/>
+      <c r="B33" s="34"/>
+      <c r="C33" s="34"/>
+      <c r="D33" s="34"/>
+      <c r="E33" s="34"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="36"/>
+      <c r="H33" s="37"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="28"/>
-      <c r="B34" s="33"/>
-      <c r="C34" s="33"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="33"/>
-      <c r="F34" s="34"/>
-      <c r="G34" s="35"/>
-      <c r="H34" s="36" t="n">
-        <f aca="false">SUM(G34*F34)</f>
-        <v>0</v>
-      </c>
+      <c r="A34" s="29"/>
+      <c r="B34" s="34"/>
+      <c r="C34" s="34"/>
+      <c r="D34" s="34"/>
+      <c r="E34" s="34"/>
+      <c r="F34" s="35"/>
+      <c r="G34" s="36"/>
+      <c r="H34" s="37"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="28"/>
-      <c r="B35" s="33"/>
-      <c r="C35" s="33"/>
-      <c r="D35" s="33"/>
-      <c r="E35" s="33"/>
-      <c r="F35" s="34"/>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36" t="n">
-        <f aca="false">SUM(G35*F35)</f>
-        <v>0</v>
-      </c>
+      <c r="A35" s="29"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="34"/>
+      <c r="D35" s="34"/>
+      <c r="E35" s="34"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="36"/>
+      <c r="H35" s="37"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="28"/>
-      <c r="B36" s="33"/>
-      <c r="C36" s="33"/>
-      <c r="D36" s="33"/>
-      <c r="E36" s="33"/>
-      <c r="F36" s="34"/>
-      <c r="G36" s="35"/>
-      <c r="H36" s="36" t="n">
-        <f aca="false">SUM(G36*F36)</f>
-        <v>0</v>
-      </c>
+      <c r="A36" s="29"/>
+      <c r="B36" s="34"/>
+      <c r="C36" s="34"/>
+      <c r="D36" s="34"/>
+      <c r="E36" s="34"/>
+      <c r="F36" s="35"/>
+      <c r="G36" s="36"/>
+      <c r="H36" s="37"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="28"/>
-      <c r="B37" s="33"/>
-      <c r="C37" s="33"/>
-      <c r="D37" s="33"/>
-      <c r="E37" s="33"/>
-      <c r="F37" s="34"/>
-      <c r="G37" s="35"/>
-      <c r="H37" s="36" t="n">
-        <f aca="false">SUM(G37*F37)</f>
-        <v>0</v>
-      </c>
+      <c r="A37" s="29"/>
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="35"/>
+      <c r="G37" s="36"/>
+      <c r="H37" s="37"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="28"/>
-      <c r="B38" s="33"/>
-      <c r="C38" s="33"/>
-      <c r="D38" s="33"/>
-      <c r="E38" s="33"/>
-      <c r="F38" s="34"/>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36" t="n">
-        <f aca="false">SUM(G38*F38)</f>
-        <v>0</v>
-      </c>
+      <c r="A38" s="29"/>
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="35"/>
+      <c r="G38" s="36"/>
+      <c r="H38" s="37"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="28"/>
-      <c r="B39" s="33"/>
-      <c r="C39" s="33"/>
-      <c r="D39" s="33"/>
-      <c r="E39" s="33"/>
-      <c r="F39" s="34"/>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36" t="n">
-        <f aca="false">SUM(G39*F39)</f>
-        <v>0</v>
-      </c>
+      <c r="A39" s="29"/>
+      <c r="B39" s="34"/>
+      <c r="C39" s="34"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="35"/>
+      <c r="G39" s="36"/>
+      <c r="H39" s="37"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="28"/>
-      <c r="B40" s="33"/>
-      <c r="C40" s="33"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="33"/>
-      <c r="F40" s="34"/>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36" t="n">
-        <f aca="false">SUM(G40*F40)</f>
-        <v>0</v>
-      </c>
+      <c r="A40" s="29"/>
+      <c r="B40" s="34"/>
+      <c r="C40" s="34"/>
+      <c r="D40" s="34"/>
+      <c r="E40" s="34"/>
+      <c r="F40" s="35"/>
+      <c r="G40" s="36"/>
+      <c r="H40" s="37"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="28"/>
-      <c r="B41" s="33"/>
-      <c r="C41" s="33"/>
-      <c r="D41" s="33"/>
-      <c r="E41" s="33"/>
-      <c r="F41" s="34"/>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36" t="n">
-        <f aca="false">SUM(G41*F41)</f>
-        <v>0</v>
-      </c>
+      <c r="A41" s="29"/>
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="35"/>
+      <c r="G41" s="36"/>
+      <c r="H41" s="37"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="28"/>
-      <c r="B42" s="33"/>
-      <c r="C42" s="33"/>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
-      <c r="F42" s="34"/>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36" t="n">
-        <f aca="false">SUM(G42*F42)</f>
-        <v>0</v>
-      </c>
+      <c r="A42" s="29"/>
+      <c r="B42" s="34"/>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="35"/>
+      <c r="G42" s="36"/>
+      <c r="H42" s="37"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="28"/>
-      <c r="B43" s="33"/>
-      <c r="C43" s="33"/>
-      <c r="D43" s="33"/>
-      <c r="E43" s="33"/>
-      <c r="F43" s="34"/>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36" t="n">
-        <f aca="false">SUM(G43*F43)</f>
-        <v>0</v>
-      </c>
+      <c r="A43" s="29"/>
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="35"/>
+      <c r="G43" s="36"/>
+      <c r="H43" s="37"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="37"/>
-      <c r="B44" s="38"/>
-      <c r="C44" s="38"/>
-      <c r="D44" s="38"/>
-      <c r="E44" s="38"/>
-      <c r="F44" s="39"/>
-      <c r="G44" s="40"/>
-      <c r="H44" s="41" t="n">
-        <f aca="false">SUM(G44*F44)</f>
-        <v>0</v>
-      </c>
+      <c r="A44" s="38"/>
+      <c r="B44" s="39"/>
+      <c r="C44" s="39"/>
+      <c r="D44" s="39"/>
+      <c r="E44" s="39"/>
+      <c r="F44" s="40"/>
+      <c r="G44" s="41"/>
+      <c r="H44" s="42"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="42"/>
-      <c r="B45" s="42"/>
-      <c r="C45" s="43"/>
-      <c r="D45" s="44"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="45"/>
-      <c r="G45" s="25"/>
-      <c r="H45" s="46"/>
+      <c r="A45" s="43"/>
+      <c r="B45" s="43"/>
+      <c r="C45" s="44"/>
+      <c r="D45" s="45"/>
+      <c r="E45" s="44"/>
+      <c r="F45" s="46"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="47"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="47"/>
-      <c r="B46" s="48"/>
-      <c r="C46" s="49" t="s">
-        <v>21</v>
-      </c>
-      <c r="D46" s="49"/>
-      <c r="E46" s="49"/>
-      <c r="F46" s="49"/>
-      <c r="G46" s="25"/>
-      <c r="H46" s="50"/>
+      <c r="A46" s="48"/>
+      <c r="B46" s="49"/>
+      <c r="C46" s="50" t="s">
+        <v>22</v>
+      </c>
+      <c r="D46" s="50"/>
+      <c r="E46" s="50"/>
+      <c r="F46" s="50"/>
+      <c r="G46" s="26"/>
+      <c r="H46" s="51"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="51"/>
-      <c r="B47" s="52"/>
-      <c r="C47" s="49" t="s">
-        <v>22</v>
-      </c>
-      <c r="D47" s="49"/>
-      <c r="E47" s="49"/>
-      <c r="F47" s="49"/>
-      <c r="G47" s="25"/>
-      <c r="H47" s="46"/>
+      <c r="A47" s="52"/>
+      <c r="B47" s="53"/>
+      <c r="C47" s="50" t="s">
+        <v>23</v>
+      </c>
+      <c r="D47" s="50"/>
+      <c r="E47" s="50"/>
+      <c r="F47" s="50"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="47"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1212,9 +1155,8 @@
     <row r="86" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="50">
-    <mergeCell ref="E2:G2"/>
-    <mergeCell ref="E3:G4"/>
+  <mergeCells count="49">
+    <mergeCell ref="E2:F2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A7:C7"/>
     <mergeCell ref="E7:G7"/>
@@ -1229,7 +1171,7 @@
     <mergeCell ref="C14:E14"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="A15:B15"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:G15"/>
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="D16:E16"/>

--- a/web/media/templates/fac-template.xlsx
+++ b/web/media/templates/fac-template.xlsx
@@ -347,7 +347,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -570,9 +570,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>73800</xdr:colOff>
+      <xdr:colOff>73440</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>144000</xdr:rowOff>
+      <xdr:rowOff>143640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -586,7 +586,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="39600" y="0"/>
-          <a:ext cx="2890080" cy="715320"/>
+          <a:ext cx="2889720" cy="714960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -609,7 +609,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J37" activeCellId="0" sqref="J37"/>
+      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -621,7 +621,7 @@
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.53"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="12.22"/>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="11.52"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.59"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="0" width="8.6"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/web/media/templates/fac-template.xlsx
+++ b/web/media/templates/fac-template.xlsx
@@ -49,7 +49,7 @@
     <t xml:space="preserve">Fax : 01.60.71.62.32</t>
   </si>
   <si>
-    <t xml:space="preserve">DE :</t>
+    <t xml:space="preserve">E-mail :</t>
   </si>
   <si>
     <t xml:space="preserve">Commande Fournisseur</t>
@@ -330,7 +330,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -381,10 +381,6 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
@@ -559,48 +555,6 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="absolute">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>39600</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Image 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="39600" y="0"/>
-          <a:ext cx="2889720" cy="714960"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr filterMode="false">
@@ -609,7 +563,7 @@
   <dimension ref="A1:H1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H14" activeCellId="0" sqref="H14"/>
+      <selection pane="topLeft" activeCell="B11" activeCellId="0" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -738,10 +692,10 @@
       <c r="A11" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B11" s="13"/>
-      <c r="C11" s="13"/>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="3"/>
-      <c r="E11" s="14"/>
+      <c r="E11" s="13"/>
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
     </row>
@@ -755,381 +709,381 @@
       <c r="G12" s="3"/>
     </row>
     <row r="13" customFormat="false" ht="14.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="15" t="s">
+      <c r="A13" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
     </row>
     <row r="14" customFormat="false" ht="13.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="16" t="s">
+      <c r="A14" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18" t="s">
+      <c r="B14" s="15"/>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="17" t="s">
         <v>12</v>
       </c>
-      <c r="G14" s="18"/>
-      <c r="H14" s="19"/>
+      <c r="G14" s="17"/>
+      <c r="H14" s="18"/>
     </row>
     <row r="15" customFormat="false" ht="15.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="20" t="s">
+      <c r="A15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="20"/>
+      <c r="B15" s="19"/>
       <c r="C15" s="2"/>
       <c r="D15" s="2"/>
       <c r="E15" s="2"/>
-      <c r="F15" s="21" t="s">
+      <c r="F15" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="G15" s="21"/>
-      <c r="H15" s="19"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="18"/>
     </row>
     <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="21" t="s">
+      <c r="A16" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="B16" s="21"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="24"/>
+      <c r="B16" s="20"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="21"/>
+      <c r="E16" s="21"/>
+      <c r="F16" s="22"/>
+      <c r="G16" s="22"/>
+      <c r="H16" s="23"/>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="25"/>
-      <c r="E17" s="25"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="22"/>
+      <c r="G17" s="22"/>
+      <c r="H17" s="25"/>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="28" t="s">
+      <c r="B18" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="27" t="s">
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="27"/>
+      <c r="F18" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="27" t="s">
+      <c r="G18" s="26" t="s">
         <v>20</v>
       </c>
-      <c r="H18" s="27" t="s">
+      <c r="H18" s="26" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="29"/>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="32"/>
-      <c r="H19" s="33"/>
+      <c r="A19" s="28"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
+      <c r="E19" s="29"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="31"/>
+      <c r="H19" s="32"/>
     </row>
     <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="29"/>
-      <c r="B20" s="34"/>
-      <c r="C20" s="34"/>
-      <c r="D20" s="34"/>
-      <c r="E20" s="34"/>
-      <c r="F20" s="35"/>
-      <c r="G20" s="36"/>
-      <c r="H20" s="37"/>
+      <c r="A20" s="28"/>
+      <c r="B20" s="33"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="33"/>
+      <c r="E20" s="33"/>
+      <c r="F20" s="34"/>
+      <c r="G20" s="35"/>
+      <c r="H20" s="36"/>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="29"/>
-      <c r="B21" s="34"/>
-      <c r="C21" s="34"/>
-      <c r="D21" s="34"/>
-      <c r="E21" s="34"/>
-      <c r="F21" s="35"/>
-      <c r="G21" s="36"/>
-      <c r="H21" s="37"/>
+      <c r="A21" s="28"/>
+      <c r="B21" s="33"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="33"/>
+      <c r="E21" s="33"/>
+      <c r="F21" s="34"/>
+      <c r="G21" s="35"/>
+      <c r="H21" s="36"/>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="29"/>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
-      <c r="E22" s="34"/>
-      <c r="F22" s="35"/>
-      <c r="G22" s="36"/>
-      <c r="H22" s="37"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="33"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="33"/>
+      <c r="E22" s="33"/>
+      <c r="F22" s="34"/>
+      <c r="G22" s="35"/>
+      <c r="H22" s="36"/>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="29"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
-      <c r="F23" s="35"/>
-      <c r="G23" s="36"/>
-      <c r="H23" s="37"/>
+      <c r="A23" s="28"/>
+      <c r="B23" s="33"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="33"/>
+      <c r="E23" s="33"/>
+      <c r="F23" s="34"/>
+      <c r="G23" s="35"/>
+      <c r="H23" s="36"/>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="29"/>
-      <c r="B24" s="34"/>
-      <c r="C24" s="34"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="34"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="36"/>
-      <c r="H24" s="37"/>
+      <c r="A24" s="28"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="33"/>
+      <c r="F24" s="34"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="36"/>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="29"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="34"/>
-      <c r="E25" s="34"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="36"/>
-      <c r="H25" s="37"/>
+      <c r="A25" s="28"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="33"/>
+      <c r="E25" s="33"/>
+      <c r="F25" s="34"/>
+      <c r="G25" s="35"/>
+      <c r="H25" s="36"/>
     </row>
     <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A26" s="29"/>
-      <c r="B26" s="34"/>
-      <c r="C26" s="34"/>
-      <c r="D26" s="34"/>
-      <c r="E26" s="34"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="36"/>
-      <c r="H26" s="37"/>
+      <c r="A26" s="28"/>
+      <c r="B26" s="33"/>
+      <c r="C26" s="33"/>
+      <c r="D26" s="33"/>
+      <c r="E26" s="33"/>
+      <c r="F26" s="34"/>
+      <c r="G26" s="35"/>
+      <c r="H26" s="36"/>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A27" s="29"/>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="34"/>
-      <c r="E27" s="34"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="36"/>
-      <c r="H27" s="37"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="33"/>
+      <c r="C27" s="33"/>
+      <c r="D27" s="33"/>
+      <c r="E27" s="33"/>
+      <c r="F27" s="34"/>
+      <c r="G27" s="35"/>
+      <c r="H27" s="36"/>
     </row>
     <row r="28" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="29"/>
-      <c r="B28" s="34"/>
-      <c r="C28" s="34"/>
-      <c r="D28" s="34"/>
-      <c r="E28" s="34"/>
-      <c r="F28" s="35"/>
-      <c r="G28" s="36"/>
-      <c r="H28" s="37"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="33"/>
+      <c r="C28" s="33"/>
+      <c r="D28" s="33"/>
+      <c r="E28" s="33"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="35"/>
+      <c r="H28" s="36"/>
     </row>
     <row r="29" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A29" s="29"/>
-      <c r="B29" s="34"/>
-      <c r="C29" s="34"/>
-      <c r="D29" s="34"/>
-      <c r="E29" s="34"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="36"/>
-      <c r="H29" s="37"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="33"/>
+      <c r="C29" s="33"/>
+      <c r="D29" s="33"/>
+      <c r="E29" s="33"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="35"/>
+      <c r="H29" s="36"/>
     </row>
     <row r="30" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="29"/>
-      <c r="B30" s="34"/>
-      <c r="C30" s="34"/>
-      <c r="D30" s="34"/>
-      <c r="E30" s="34"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="36"/>
-      <c r="H30" s="37"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="34"/>
+      <c r="G30" s="35"/>
+      <c r="H30" s="36"/>
     </row>
     <row r="31" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="29"/>
-      <c r="B31" s="34"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
-      <c r="E31" s="34"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="36"/>
-      <c r="H31" s="37"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="33"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="34"/>
+      <c r="G31" s="35"/>
+      <c r="H31" s="36"/>
     </row>
     <row r="32" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="29"/>
-      <c r="B32" s="34"/>
-      <c r="C32" s="34"/>
-      <c r="D32" s="34"/>
-      <c r="E32" s="34"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="36"/>
-      <c r="H32" s="37"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="33"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="34"/>
+      <c r="G32" s="35"/>
+      <c r="H32" s="36"/>
     </row>
     <row r="33" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A33" s="29"/>
-      <c r="B33" s="34"/>
-      <c r="C33" s="34"/>
-      <c r="D33" s="34"/>
-      <c r="E33" s="34"/>
-      <c r="F33" s="35"/>
-      <c r="G33" s="36"/>
-      <c r="H33" s="37"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="33"/>
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33"/>
+      <c r="F33" s="34"/>
+      <c r="G33" s="35"/>
+      <c r="H33" s="36"/>
     </row>
     <row r="34" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A34" s="29"/>
-      <c r="B34" s="34"/>
-      <c r="C34" s="34"/>
-      <c r="D34" s="34"/>
-      <c r="E34" s="34"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="36"/>
-      <c r="H34" s="37"/>
+      <c r="A34" s="28"/>
+      <c r="B34" s="33"/>
+      <c r="C34" s="33"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="33"/>
+      <c r="F34" s="34"/>
+      <c r="G34" s="35"/>
+      <c r="H34" s="36"/>
     </row>
     <row r="35" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="29"/>
-      <c r="B35" s="34"/>
-      <c r="C35" s="34"/>
-      <c r="D35" s="34"/>
-      <c r="E35" s="34"/>
-      <c r="F35" s="35"/>
-      <c r="G35" s="36"/>
-      <c r="H35" s="37"/>
+      <c r="A35" s="28"/>
+      <c r="B35" s="33"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="33"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="34"/>
+      <c r="G35" s="35"/>
+      <c r="H35" s="36"/>
     </row>
     <row r="36" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="29"/>
-      <c r="B36" s="34"/>
-      <c r="C36" s="34"/>
-      <c r="D36" s="34"/>
-      <c r="E36" s="34"/>
-      <c r="F36" s="35"/>
-      <c r="G36" s="36"/>
-      <c r="H36" s="37"/>
+      <c r="A36" s="28"/>
+      <c r="B36" s="33"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="33"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="34"/>
+      <c r="G36" s="35"/>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="29"/>
-      <c r="B37" s="34"/>
-      <c r="C37" s="34"/>
-      <c r="D37" s="34"/>
-      <c r="E37" s="34"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="36"/>
-      <c r="H37" s="37"/>
+      <c r="A37" s="28"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="35"/>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A38" s="29"/>
-      <c r="B38" s="34"/>
-      <c r="C38" s="34"/>
-      <c r="D38" s="34"/>
-      <c r="E38" s="34"/>
-      <c r="F38" s="35"/>
-      <c r="G38" s="36"/>
-      <c r="H38" s="37"/>
+      <c r="A38" s="28"/>
+      <c r="B38" s="33"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="33"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="35"/>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A39" s="29"/>
-      <c r="B39" s="34"/>
-      <c r="C39" s="34"/>
-      <c r="D39" s="34"/>
-      <c r="E39" s="34"/>
-      <c r="F39" s="35"/>
-      <c r="G39" s="36"/>
-      <c r="H39" s="37"/>
+      <c r="A39" s="28"/>
+      <c r="B39" s="33"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="33"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="35"/>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A40" s="29"/>
-      <c r="B40" s="34"/>
-      <c r="C40" s="34"/>
-      <c r="D40" s="34"/>
-      <c r="E40" s="34"/>
-      <c r="F40" s="35"/>
-      <c r="G40" s="36"/>
-      <c r="H40" s="37"/>
+      <c r="A40" s="28"/>
+      <c r="B40" s="33"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="33"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="35"/>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A41" s="29"/>
-      <c r="B41" s="34"/>
-      <c r="C41" s="34"/>
-      <c r="D41" s="34"/>
-      <c r="E41" s="34"/>
-      <c r="F41" s="35"/>
-      <c r="G41" s="36"/>
-      <c r="H41" s="37"/>
+      <c r="A41" s="28"/>
+      <c r="B41" s="33"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="33"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="35"/>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A42" s="29"/>
-      <c r="B42" s="34"/>
-      <c r="C42" s="34"/>
-      <c r="D42" s="34"/>
-      <c r="E42" s="34"/>
-      <c r="F42" s="35"/>
-      <c r="G42" s="36"/>
-      <c r="H42" s="37"/>
+      <c r="A42" s="28"/>
+      <c r="B42" s="33"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="33"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="35"/>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A43" s="29"/>
-      <c r="B43" s="34"/>
-      <c r="C43" s="34"/>
-      <c r="D43" s="34"/>
-      <c r="E43" s="34"/>
-      <c r="F43" s="35"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="37"/>
+      <c r="A43" s="28"/>
+      <c r="B43" s="33"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="33"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="35"/>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A44" s="38"/>
-      <c r="B44" s="39"/>
-      <c r="C44" s="39"/>
-      <c r="D44" s="39"/>
-      <c r="E44" s="39"/>
-      <c r="F44" s="40"/>
-      <c r="G44" s="41"/>
-      <c r="H44" s="42"/>
+      <c r="A44" s="37"/>
+      <c r="B44" s="38"/>
+      <c r="C44" s="38"/>
+      <c r="D44" s="38"/>
+      <c r="E44" s="38"/>
+      <c r="F44" s="39"/>
+      <c r="G44" s="40"/>
+      <c r="H44" s="41"/>
     </row>
     <row r="45" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A45" s="43"/>
-      <c r="B45" s="43"/>
-      <c r="C45" s="44"/>
-      <c r="D45" s="45"/>
-      <c r="E45" s="44"/>
-      <c r="F45" s="46"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="47"/>
+      <c r="A45" s="42"/>
+      <c r="B45" s="42"/>
+      <c r="C45" s="43"/>
+      <c r="D45" s="44"/>
+      <c r="E45" s="43"/>
+      <c r="F45" s="45"/>
+      <c r="G45" s="25"/>
+      <c r="H45" s="46"/>
     </row>
     <row r="46" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A46" s="48"/>
-      <c r="B46" s="49"/>
-      <c r="C46" s="50" t="s">
+      <c r="A46" s="47"/>
+      <c r="B46" s="48"/>
+      <c r="C46" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="50"/>
-      <c r="E46" s="50"/>
-      <c r="F46" s="50"/>
-      <c r="G46" s="26"/>
-      <c r="H46" s="51"/>
+      <c r="D46" s="49"/>
+      <c r="E46" s="49"/>
+      <c r="F46" s="49"/>
+      <c r="G46" s="25"/>
+      <c r="H46" s="50"/>
     </row>
     <row r="47" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A47" s="52"/>
-      <c r="B47" s="53"/>
-      <c r="C47" s="50" t="s">
+      <c r="A47" s="51"/>
+      <c r="B47" s="52"/>
+      <c r="C47" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="D47" s="50"/>
-      <c r="E47" s="50"/>
-      <c r="F47" s="50"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="47"/>
+      <c r="D47" s="49"/>
+      <c r="E47" s="49"/>
+      <c r="F47" s="49"/>
+      <c r="G47" s="25"/>
+      <c r="H47" s="46"/>
     </row>
     <row r="49" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="52" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1213,6 +1167,5 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>